--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1034882.454174193</v>
+        <v>1030377.043605271</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30052932.10990575</v>
+        <v>30052932.10990572</v>
       </c>
     </row>
     <row r="8">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.9302627553945</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.36782720556178</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>343.9442515471629</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.90452502067238</v>
+        <v>60.90452502067237</v>
       </c>
       <c r="T12" t="n">
         <v>136.2065070493723</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.4903647118297</v>
       </c>
       <c r="I13" t="n">
-        <v>72.15825564197092</v>
+        <v>72.15825564197091</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.778005649686236</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T13" t="n">
-        <v>237.124837410167</v>
+        <v>234.1667841146394</v>
       </c>
       <c r="U13" t="n">
-        <v>245.4897211953612</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>274.6854808033287</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.36782720556177</v>
       </c>
       <c r="T14" t="n">
         <v>210.080265299677</v>
       </c>
       <c r="U14" t="n">
-        <v>6.32648632103781</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>273.93090019826</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>73.60872551723952</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1782,10 +1782,10 @@
         <v>163.7094577587503</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.15825564197091</v>
+        <v>72.1582556419709</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.778005649686229</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V16" t="n">
-        <v>276.5466895134446</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>248.2745677454178</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1855,13 +1855,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H17" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.36782720556179</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>67.61627927608436</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>31.10357552613289</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>41.77233599521211</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.7094577587503</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.778005649686229</v>
+        <v>6.778005649686222</v>
       </c>
       <c r="S19" t="n">
         <v>153.01156706812</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>175.5383222960231</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>210.080265299677</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>103.7832424308699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>168.5475061081366</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>130.9102838509184</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.15825564197092</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>277.3343344374282</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>339.6369516944155</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.36782720556179</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>117.9149488305886</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H25" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.778005649686229</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.01156706812</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>196.0328156389873</v>
       </c>
       <c r="U25" t="n">
-        <v>160.481912434137</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>235.4786982699907</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3228448427254</v>
+        <v>146.6733296971752</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.36782720556179</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>4.001382319461349</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>277.3343344374282</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>40.96940310474915</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>46.25964568643537</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.36782720556179</v>
+        <v>39.78175106429781</v>
       </c>
       <c r="T29" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2958,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>88.12315480760573</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7094577587503</v>
+        <v>1.577645241962492</v>
       </c>
       <c r="H31" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.15825564197091</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>58.36782720556179</v>
       </c>
       <c r="T32" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>130.5326123460901</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>334.2326024283565</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>6.778005649686222</v>
       </c>
       <c r="S34" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.124837410167</v>
@@ -3246,10 +3246,10 @@
         <v>277.3343344374282</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>270.4110156866287</v>
       </c>
       <c r="W34" t="n">
-        <v>189.288406778354</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3268,22 +3268,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>319.9307975355532</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>168.3354709524656</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>96.27956945947774</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>194.7145407615613</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>313.9806192415748</v>
       </c>
       <c r="C38" t="n">
-        <v>387.3773702900382</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.36782720556179</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>7.610693574613921</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>6.778005649686222</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T40" t="n">
         <v>237.124837410167</v>
@@ -3720,16 +3720,16 @@
         <v>277.3343344374282</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>62.5844365276124</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>67.01383024058775</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.3228448427254</v>
       </c>
       <c r="H41" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.36782720556178</v>
+        <v>27.22874469465792</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.124837410167</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>25.35417037507441</v>
+        <v>238.4329262069164</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>161.9355084231555</v>
+        <v>313.9806192415748</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I46" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>249.8539689817511</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>14.8376699720817</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1571.471950501065</v>
+        <v>465.6886211074535</v>
       </c>
       <c r="C11" t="n">
-        <v>1571.471950501065</v>
+        <v>465.6886211074535</v>
       </c>
       <c r="D11" t="n">
-        <v>1148.179329686065</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="E11" t="n">
-        <v>722.2023898339227</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="F11" t="n">
-        <v>722.2023898339227</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="G11" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="H11" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="I11" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423344</v>
       </c>
       <c r="J11" t="n">
         <v>220.1314621299484</v>
       </c>
       <c r="K11" t="n">
-        <v>433.1659828319414</v>
+        <v>433.1659828319415</v>
       </c>
       <c r="L11" t="n">
-        <v>703.4506798655941</v>
+        <v>703.4506798655943</v>
       </c>
       <c r="M11" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N11" t="n">
         <v>1320.93021977883</v>
@@ -5059,34 +5059,34 @@
         <v>1612.988324273003</v>
       </c>
       <c r="P11" t="n">
-        <v>1856.646746816144</v>
+        <v>1856.646746816145</v>
       </c>
       <c r="Q11" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420095</v>
       </c>
       <c r="R11" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S11" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T11" t="n">
-        <v>2119.800014622689</v>
+        <v>1848.640325223459</v>
       </c>
       <c r="U11" t="n">
-        <v>2119.800014622689</v>
+        <v>1590.444836178959</v>
       </c>
       <c r="V11" t="n">
-        <v>1762.310599748938</v>
+        <v>1232.955421305209</v>
       </c>
       <c r="W11" t="n">
-        <v>1762.310599748938</v>
+        <v>885.5369853989836</v>
       </c>
       <c r="X11" t="n">
-        <v>1762.310599748938</v>
+        <v>885.5369853989836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1762.310599748938</v>
+        <v>885.5369853989836</v>
       </c>
     </row>
     <row r="12">
@@ -5111,28 +5111,28 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G12" t="n">
-        <v>85.47467570705</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H12" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="I12" t="n">
-        <v>85.82180709907709</v>
+        <v>62.36450125466529</v>
       </c>
       <c r="J12" t="n">
-        <v>164.1463794987497</v>
+        <v>415.7924924818263</v>
       </c>
       <c r="K12" t="n">
-        <v>310.7157081019334</v>
+        <v>562.3618210850102</v>
       </c>
       <c r="L12" t="n">
-        <v>515.3236711252209</v>
+        <v>766.9697841082977</v>
       </c>
       <c r="M12" t="n">
-        <v>757.2370043172496</v>
+        <v>1008.883117300326</v>
       </c>
       <c r="N12" t="n">
-        <v>1007.894468402091</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O12" t="n">
         <v>1485.232474392533</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.8818220388256</v>
+        <v>423.1045435688919</v>
       </c>
       <c r="C13" t="n">
-        <v>917.8818220388256</v>
+        <v>251.1319804478079</v>
       </c>
       <c r="D13" t="n">
-        <v>754.5650491655963</v>
+        <v>251.1319804478079</v>
       </c>
       <c r="E13" t="n">
-        <v>588.3568433184498</v>
+        <v>251.1319804478079</v>
       </c>
       <c r="F13" t="n">
-        <v>416.4950690930103</v>
+        <v>251.1319804478079</v>
       </c>
       <c r="G13" t="n">
         <v>251.1319804478079</v>
@@ -5196,55 +5196,55 @@
         <v>115.2831272035355</v>
       </c>
       <c r="I13" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="J13" t="n">
-        <v>83.90537476982986</v>
+        <v>83.9053747698299</v>
       </c>
       <c r="K13" t="n">
-        <v>164.9364244520255</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L13" t="n">
-        <v>556.8188417207332</v>
+        <v>273.4879621578702</v>
       </c>
       <c r="M13" t="n">
-        <v>1081.469345339849</v>
+        <v>798.1384657769859</v>
       </c>
       <c r="N13" t="n">
-        <v>1194.99402941617</v>
+        <v>1309.696072695187</v>
       </c>
       <c r="O13" t="n">
-        <v>1674.253897017313</v>
+        <v>1522.880399639415</v>
       </c>
       <c r="P13" t="n">
-        <v>2070.812554180405</v>
+        <v>1919.439056802507</v>
       </c>
       <c r="Q13" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="R13" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.95354426947</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T13" t="n">
-        <v>1873.433506481423</v>
+        <v>1728.710771003741</v>
       </c>
       <c r="U13" t="n">
-        <v>1625.464091132573</v>
+        <v>1448.575079652803</v>
       </c>
       <c r="V13" t="n">
-        <v>1625.464091132573</v>
+        <v>1166.863612260832</v>
       </c>
       <c r="W13" t="n">
-        <v>1350.611687305086</v>
+        <v>892.0112084333448</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.047790750891</v>
+        <v>649.4473118791499</v>
       </c>
       <c r="Y13" t="n">
-        <v>1108.047790750891</v>
+        <v>423.1045435688919</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1147.326571644523</v>
+        <v>746.7568118986776</v>
       </c>
       <c r="C14" t="n">
-        <v>1147.326571644523</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="D14" t="n">
-        <v>1147.326571644523</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.326571644523</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="F14" t="n">
-        <v>722.2023898339227</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="G14" t="n">
         <v>319.8560819119778</v>
       </c>
       <c r="H14" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="I14" t="n">
         <v>83.49041341423344</v>
@@ -5281,49 +5281,49 @@
         <v>220.131462129948</v>
       </c>
       <c r="K14" t="n">
-        <v>433.1659828319411</v>
+        <v>433.1659828319413</v>
       </c>
       <c r="L14" t="n">
-        <v>703.4506798655939</v>
+        <v>703.4506798655941</v>
       </c>
       <c r="M14" t="n">
         <v>1009.34076718589</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O14" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P14" t="n">
         <v>1856.646746816144</v>
       </c>
       <c r="Q14" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420095</v>
       </c>
       <c r="R14" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S14" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T14" t="n">
-        <v>1907.597726441197</v>
+        <v>1848.640325223459</v>
       </c>
       <c r="U14" t="n">
-        <v>1901.207336217926</v>
+        <v>1848.640325223459</v>
       </c>
       <c r="V14" t="n">
-        <v>1543.717921344176</v>
+        <v>1848.640325223459</v>
       </c>
       <c r="W14" t="n">
-        <v>1147.326571644523</v>
+        <v>1571.942446235317</v>
       </c>
       <c r="X14" t="n">
-        <v>1147.326571644523</v>
+        <v>1571.942446235317</v>
       </c>
       <c r="Y14" t="n">
-        <v>1147.326571644523</v>
+        <v>1166.605176190208</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G15" t="n">
-        <v>85.47467570705</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H15" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="I15" t="n">
-        <v>85.82180709907709</v>
+        <v>62.36450125466529</v>
       </c>
       <c r="J15" t="n">
-        <v>164.1463794987497</v>
+        <v>415.7924924818261</v>
       </c>
       <c r="K15" t="n">
-        <v>310.7157081019335</v>
+        <v>562.36182108501</v>
       </c>
       <c r="L15" t="n">
-        <v>515.323671125221</v>
+        <v>766.9697841082975</v>
       </c>
       <c r="M15" t="n">
-        <v>757.2370043172498</v>
+        <v>1008.883117300326</v>
       </c>
       <c r="N15" t="n">
-        <v>1007.894468402091</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O15" t="n">
-        <v>1233.586361409456</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P15" t="n">
-        <v>1411.582379632096</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q15" t="n">
         <v>1774.102247579974</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.854385159909</v>
+        <v>856.3852167917648</v>
       </c>
       <c r="C16" t="n">
-        <v>917.8818220388256</v>
+        <v>782.0329687945532</v>
       </c>
       <c r="D16" t="n">
-        <v>754.5650491655963</v>
+        <v>618.7161959213239</v>
       </c>
       <c r="E16" t="n">
-        <v>588.3568433184498</v>
+        <v>452.5079900741774</v>
       </c>
       <c r="F16" t="n">
-        <v>416.4950690930103</v>
+        <v>280.6462158487379</v>
       </c>
       <c r="G16" t="n">
-        <v>251.1319804478079</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="H16" t="n">
         <v>115.2831272035355</v>
       </c>
       <c r="I16" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="J16" t="n">
-        <v>161.8270914180507</v>
+        <v>161.8270914180508</v>
       </c>
       <c r="K16" t="n">
-        <v>490.1407502142685</v>
+        <v>490.1407502142686</v>
       </c>
       <c r="L16" t="n">
-        <v>598.692287920113</v>
+        <v>975.0811815112781</v>
       </c>
       <c r="M16" t="n">
-        <v>713.6741353720595</v>
+        <v>1090.063028963225</v>
       </c>
       <c r="N16" t="n">
-        <v>1043.620532038271</v>
+        <v>1203.587713039546</v>
       </c>
       <c r="O16" t="n">
-        <v>1522.880399639414</v>
+        <v>1522.880399639415</v>
       </c>
       <c r="P16" t="n">
-        <v>1919.439056802506</v>
+        <v>1919.439056802507</v>
       </c>
       <c r="Q16" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="R16" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="T16" t="n">
-        <v>2112.95354426947</v>
+        <v>1880.279976834642</v>
       </c>
       <c r="U16" t="n">
-        <v>2112.95354426947</v>
+        <v>1600.144285483705</v>
       </c>
       <c r="V16" t="n">
-        <v>1833.613453851849</v>
+        <v>1600.144285483705</v>
       </c>
       <c r="W16" t="n">
-        <v>1558.761050024362</v>
+        <v>1325.291881656218</v>
       </c>
       <c r="X16" t="n">
-        <v>1316.197153470167</v>
+        <v>1082.727985102023</v>
       </c>
       <c r="Y16" t="n">
-        <v>1089.854385159909</v>
+        <v>856.3852167917648</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1597.85793356142</v>
+        <v>1297.619978053241</v>
       </c>
       <c r="C17" t="n">
-        <v>1170.95720357472</v>
+        <v>870.7192480665411</v>
       </c>
       <c r="D17" t="n">
-        <v>1170.95720357472</v>
+        <v>870.7192480665411</v>
       </c>
       <c r="E17" t="n">
-        <v>744.9802637225775</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="F17" t="n">
-        <v>319.8560819119778</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="G17" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="H17" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="I17" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423367</v>
       </c>
       <c r="J17" t="n">
-        <v>220.1314621299488</v>
+        <v>220.1314621299484</v>
       </c>
       <c r="K17" t="n">
-        <v>433.1659828319418</v>
+        <v>433.1659828319415</v>
       </c>
       <c r="L17" t="n">
-        <v>703.4506798655946</v>
+        <v>703.4506798655943</v>
       </c>
       <c r="M17" t="n">
         <v>1009.340767185891</v>
@@ -5530,37 +5530,37 @@
         <v>1320.93021977883</v>
       </c>
       <c r="O17" t="n">
-        <v>1612.988324273003</v>
+        <v>1612.988324273004</v>
       </c>
       <c r="P17" t="n">
         <v>1856.646746816144</v>
       </c>
       <c r="Q17" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420095</v>
       </c>
       <c r="R17" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S17" t="n">
-        <v>2060.84261340495</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="T17" t="n">
-        <v>1848.640325223458</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="U17" t="n">
-        <v>1848.640325223458</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="V17" t="n">
-        <v>1848.640325223458</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="W17" t="n">
-        <v>1848.640325223458</v>
+        <v>1365.919250049286</v>
       </c>
       <c r="X17" t="n">
-        <v>1848.640325223458</v>
+        <v>1297.619978053241</v>
       </c>
       <c r="Y17" t="n">
-        <v>1848.640325223458</v>
+        <v>1297.619978053241</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>85.47467570705001</v>
       </c>
       <c r="H18" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="I18" t="n">
-        <v>62.36450125466527</v>
+        <v>62.36450125466529</v>
       </c>
       <c r="J18" t="n">
-        <v>140.6890736543379</v>
+        <v>415.7924924818263</v>
       </c>
       <c r="K18" t="n">
-        <v>287.2584022575217</v>
+        <v>562.3618210850102</v>
       </c>
       <c r="L18" t="n">
-        <v>491.8663652808092</v>
+        <v>766.9697841082977</v>
       </c>
       <c r="M18" t="n">
-        <v>733.7796984728379</v>
+        <v>1008.883117300326</v>
       </c>
       <c r="N18" t="n">
-        <v>984.4371625576796</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O18" t="n">
-        <v>1379.776974107627</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P18" t="n">
-        <v>1557.772992330267</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1668.646747295068</v>
+        <v>1774.102247579974</v>
       </c>
       <c r="R18" t="n">
         <v>1815.547718957572</v>
@@ -5649,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.270140593928</v>
+        <v>850.7590524016814</v>
       </c>
       <c r="C19" t="n">
-        <v>413.270140593928</v>
+        <v>678.7864892805974</v>
       </c>
       <c r="D19" t="n">
-        <v>249.9533677206987</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="E19" t="n">
-        <v>207.7590889376561</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="F19" t="n">
-        <v>207.7590889376561</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="G19" t="n">
-        <v>42.39600029245378</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H19" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="I19" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="J19" t="n">
-        <v>161.8270914180507</v>
+        <v>161.8270914180508</v>
       </c>
       <c r="K19" t="n">
-        <v>490.1407502142685</v>
+        <v>490.1407502142686</v>
       </c>
       <c r="L19" t="n">
-        <v>975.0811815112779</v>
+        <v>975.0811815112781</v>
       </c>
       <c r="M19" t="n">
-        <v>1090.063028963224</v>
+        <v>1090.063028963225</v>
       </c>
       <c r="N19" t="n">
-        <v>1507.750233989478</v>
+        <v>1203.587713039546</v>
       </c>
       <c r="O19" t="n">
-        <v>1987.010101590621</v>
+        <v>1522.880399639415</v>
       </c>
       <c r="P19" t="n">
-        <v>2070.812554180406</v>
+        <v>1919.439056802507</v>
       </c>
       <c r="Q19" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="R19" t="n">
         <v>2112.953544269471</v>
@@ -5712,13 +5712,13 @@
         <v>1157.029209285868</v>
       </c>
       <c r="W19" t="n">
-        <v>882.1768054583808</v>
+        <v>882.1768054583813</v>
       </c>
       <c r="X19" t="n">
-        <v>639.6129089041859</v>
+        <v>882.1768054583813</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.270140593928</v>
+        <v>882.1768054583813</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1148.179329686065</v>
+        <v>1495.877727608945</v>
       </c>
       <c r="C20" t="n">
-        <v>1148.179329686065</v>
+        <v>1068.976997622246</v>
       </c>
       <c r="D20" t="n">
-        <v>1148.179329686065</v>
+        <v>645.6843768072458</v>
       </c>
       <c r="E20" t="n">
-        <v>722.2023898339227</v>
+        <v>219.7074369551034</v>
       </c>
       <c r="F20" t="n">
-        <v>722.2023898339227</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="G20" t="n">
-        <v>319.8560819119778</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="H20" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I20" t="n">
         <v>83.4904134142339</v>
@@ -5755,10 +5755,10 @@
         <v>220.1314621299488</v>
       </c>
       <c r="K20" t="n">
-        <v>433.1659828319418</v>
+        <v>433.1659828319419</v>
       </c>
       <c r="L20" t="n">
-        <v>703.4506798655945</v>
+        <v>703.4506798655947</v>
       </c>
       <c r="M20" t="n">
         <v>1009.340767185891</v>
@@ -5767,37 +5767,37 @@
         <v>1320.93021977883</v>
       </c>
       <c r="O20" t="n">
-        <v>1612.988324273003</v>
+        <v>1612.988324273004</v>
       </c>
       <c r="P20" t="n">
-        <v>1856.646746816144</v>
+        <v>1856.646746816145</v>
       </c>
       <c r="Q20" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420095</v>
       </c>
       <c r="R20" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S20" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="T20" t="n">
-        <v>1907.597726441197</v>
+        <v>1907.597726441198</v>
       </c>
       <c r="U20" t="n">
-        <v>1649.402237396698</v>
+        <v>1907.597726441198</v>
       </c>
       <c r="V20" t="n">
-        <v>1649.402237396698</v>
+        <v>1907.597726441198</v>
       </c>
       <c r="W20" t="n">
-        <v>1253.010887697045</v>
+        <v>1907.597726441198</v>
       </c>
       <c r="X20" t="n">
-        <v>1253.010887697045</v>
+        <v>1495.877727608945</v>
       </c>
       <c r="Y20" t="n">
-        <v>1148.179329686065</v>
+        <v>1495.877727608945</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G21" t="n">
-        <v>85.47467570705001</v>
+        <v>85.47467570705003</v>
       </c>
       <c r="H21" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I21" t="n">
-        <v>62.36450125466527</v>
+        <v>85.82180709907715</v>
       </c>
       <c r="J21" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969207</v>
       </c>
       <c r="K21" t="n">
-        <v>287.2584022575217</v>
+        <v>456.9063208001045</v>
       </c>
       <c r="L21" t="n">
-        <v>491.8663652808091</v>
+        <v>661.514283823392</v>
       </c>
       <c r="M21" t="n">
-        <v>733.7796984728378</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N21" t="n">
-        <v>984.4371625576795</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O21" t="n">
-        <v>1210.129055565044</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P21" t="n">
-        <v>1388.125073787684</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R21" t="n">
         <v>1815.547718957572</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>892.5620163899566</v>
+        <v>384.5077806877284</v>
       </c>
       <c r="C22" t="n">
-        <v>720.5894532688726</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="D22" t="n">
-        <v>720.5894532688726</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="E22" t="n">
-        <v>588.3568433184499</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="F22" t="n">
-        <v>416.4950690930103</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="G22" t="n">
-        <v>251.1319804478079</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="H22" t="n">
-        <v>115.2831272035355</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I22" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="J22" t="n">
-        <v>83.90537476982988</v>
+        <v>161.8270914180508</v>
       </c>
       <c r="K22" t="n">
-        <v>330.173569212994</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L22" t="n">
-        <v>815.1140005100035</v>
+        <v>975.0811815112781</v>
       </c>
       <c r="M22" t="n">
-        <v>930.09584796195</v>
+        <v>1394.225549913157</v>
       </c>
       <c r="N22" t="n">
-        <v>1043.620532038271</v>
+        <v>1507.750233989479</v>
       </c>
       <c r="O22" t="n">
-        <v>1522.880399639414</v>
+        <v>1987.010101590622</v>
       </c>
       <c r="P22" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180407</v>
       </c>
       <c r="Q22" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="R22" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S22" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="T22" t="n">
-        <v>1880.279976834642</v>
+        <v>1880.279976834643</v>
       </c>
       <c r="U22" t="n">
-        <v>1600.144285483704</v>
+        <v>1600.144285483705</v>
       </c>
       <c r="V22" t="n">
-        <v>1600.144285483704</v>
+        <v>1318.432818091734</v>
       </c>
       <c r="W22" t="n">
-        <v>1325.291881656217</v>
+        <v>1043.580414264247</v>
       </c>
       <c r="X22" t="n">
-        <v>1082.727985102022</v>
+        <v>801.016517710052</v>
       </c>
       <c r="Y22" t="n">
-        <v>1082.727985102022</v>
+        <v>574.673749399794</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1169.12564257912</v>
+        <v>1235.65697906831</v>
       </c>
       <c r="C23" t="n">
-        <v>1169.12564257912</v>
+        <v>808.7562490816106</v>
       </c>
       <c r="D23" t="n">
-        <v>745.8330217641202</v>
+        <v>385.4636282666108</v>
       </c>
       <c r="E23" t="n">
-        <v>319.8560819119778</v>
+        <v>385.4636282666108</v>
       </c>
       <c r="F23" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G23" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H23" t="n">
         <v>42.39600029245378</v>
@@ -5992,10 +5992,10 @@
         <v>220.1314621299487</v>
       </c>
       <c r="K23" t="n">
-        <v>433.1659828319417</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L23" t="n">
-        <v>703.4506798655945</v>
+        <v>703.4506798655943</v>
       </c>
       <c r="M23" t="n">
         <v>1009.34076718589</v>
@@ -6016,25 +6016,25 @@
         <v>2119.800014622689</v>
       </c>
       <c r="S23" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T23" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U23" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="V23" t="n">
-        <v>2000.694005702903</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="W23" t="n">
-        <v>2000.694005702903</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="X23" t="n">
-        <v>1588.97400687065</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.97400687065</v>
+        <v>1655.50534335984</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>85.82180709907712</v>
       </c>
       <c r="J24" t="n">
-        <v>164.1463794987498</v>
+        <v>310.3369921969207</v>
       </c>
       <c r="K24" t="n">
-        <v>310.7157081019335</v>
+        <v>456.9063208001045</v>
       </c>
       <c r="L24" t="n">
-        <v>515.323671125221</v>
+        <v>661.514283823392</v>
       </c>
       <c r="M24" t="n">
-        <v>757.2370043172498</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N24" t="n">
-        <v>1007.894468402091</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O24" t="n">
         <v>1379.776974107627</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.6569591681837</v>
+        <v>551.5934262841797</v>
       </c>
       <c r="C25" t="n">
-        <v>580.6569591681837</v>
+        <v>379.6208631630957</v>
       </c>
       <c r="D25" t="n">
-        <v>417.3401862949544</v>
+        <v>379.6208631630957</v>
       </c>
       <c r="E25" t="n">
-        <v>251.1319804478079</v>
+        <v>379.6208631630957</v>
       </c>
       <c r="F25" t="n">
-        <v>251.1319804478079</v>
+        <v>207.7590889376561</v>
       </c>
       <c r="G25" t="n">
-        <v>251.1319804478079</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H25" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I25" t="n">
         <v>42.39600029245378</v>
       </c>
       <c r="J25" t="n">
-        <v>83.90537476982989</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K25" t="n">
-        <v>412.2190335660476</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L25" t="n">
-        <v>697.870950377465</v>
+        <v>598.692287920113</v>
       </c>
       <c r="M25" t="n">
-        <v>1222.52145399658</v>
+        <v>1123.342791539229</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.079060914782</v>
+        <v>1634.90039845743</v>
       </c>
       <c r="O25" t="n">
-        <v>1835.636604212722</v>
+        <v>1736.45794175537</v>
       </c>
       <c r="P25" t="n">
         <v>1919.439056802506</v>
@@ -6171,28 +6171,28 @@
         <v>2119.800014622689</v>
       </c>
       <c r="R25" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S25" t="n">
-        <v>1958.396405816824</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.396405816824</v>
+        <v>1767.229931080156</v>
       </c>
       <c r="U25" t="n">
-        <v>1796.29346396416</v>
+        <v>1767.229931080156</v>
       </c>
       <c r="V25" t="n">
-        <v>1514.581996572189</v>
+        <v>1485.518463688185</v>
       </c>
       <c r="W25" t="n">
-        <v>1239.729592744702</v>
+        <v>1210.666059860698</v>
       </c>
       <c r="X25" t="n">
-        <v>997.1656961905073</v>
+        <v>968.1021633065034</v>
       </c>
       <c r="Y25" t="n">
-        <v>770.8229278802494</v>
+        <v>741.7593949962454</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1107.723761004787</v>
+        <v>1039.820439441591</v>
       </c>
       <c r="C26" t="n">
-        <v>1107.723761004787</v>
+        <v>1039.820439441591</v>
       </c>
       <c r="D26" t="n">
-        <v>869.8664900249985</v>
+        <v>616.5278186265914</v>
       </c>
       <c r="E26" t="n">
-        <v>869.8664900249985</v>
+        <v>190.550878774449</v>
       </c>
       <c r="F26" t="n">
-        <v>444.7423082143987</v>
+        <v>190.550878774449</v>
       </c>
       <c r="G26" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="H26" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="I26" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423344</v>
       </c>
       <c r="J26" t="n">
-        <v>220.1314621299488</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K26" t="n">
-        <v>433.1659828319419</v>
+        <v>433.1659828319421</v>
       </c>
       <c r="L26" t="n">
-        <v>703.4506798655947</v>
+        <v>703.4506798655948</v>
       </c>
       <c r="M26" t="n">
         <v>1009.340767185891</v>
@@ -6241,7 +6241,7 @@
         <v>1320.93021977883</v>
       </c>
       <c r="O26" t="n">
-        <v>1612.988324273004</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P26" t="n">
         <v>1856.646746816145</v>
@@ -6253,25 +6253,25 @@
         <v>2119.80001462269</v>
       </c>
       <c r="S26" t="n">
-        <v>2119.80001462269</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T26" t="n">
-        <v>2119.80001462269</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U26" t="n">
-        <v>1861.604525578191</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="V26" t="n">
-        <v>1504.11511070444</v>
+        <v>1445.157709486701</v>
       </c>
       <c r="W26" t="n">
-        <v>1107.723761004787</v>
+        <v>1445.157709486701</v>
       </c>
       <c r="X26" t="n">
-        <v>1107.723761004787</v>
+        <v>1445.157709486701</v>
       </c>
       <c r="Y26" t="n">
-        <v>1107.723761004787</v>
+        <v>1039.820439441591</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G27" t="n">
-        <v>85.47467570705003</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H27" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="I27" t="n">
-        <v>62.36450125466529</v>
+        <v>85.82180709907713</v>
       </c>
       <c r="J27" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969207</v>
       </c>
       <c r="K27" t="n">
-        <v>287.2584022575218</v>
+        <v>456.9063208001045</v>
       </c>
       <c r="L27" t="n">
-        <v>491.8663652808093</v>
+        <v>661.514283823392</v>
       </c>
       <c r="M27" t="n">
-        <v>733.779698472838</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N27" t="n">
-        <v>1258.430202091954</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O27" t="n">
-        <v>1485.232474392533</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P27" t="n">
-        <v>1663.228492615173</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R27" t="n">
         <v>1815.547718957572</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1089.85438515991</v>
+        <v>380.4659803650399</v>
       </c>
       <c r="C28" t="n">
-        <v>917.8818220388257</v>
+        <v>380.4659803650399</v>
       </c>
       <c r="D28" t="n">
-        <v>754.5650491655964</v>
+        <v>380.4659803650399</v>
       </c>
       <c r="E28" t="n">
-        <v>588.3568433184499</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="F28" t="n">
-        <v>416.4950690930103</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="G28" t="n">
-        <v>251.1319804478079</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="H28" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="I28" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245379</v>
       </c>
       <c r="J28" t="n">
-        <v>161.8270914180508</v>
+        <v>83.9053747698299</v>
       </c>
       <c r="K28" t="n">
-        <v>490.1407502142685</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L28" t="n">
-        <v>783.1476686460381</v>
+        <v>273.4879621578702</v>
       </c>
       <c r="M28" t="n">
-        <v>1307.798172265154</v>
+        <v>798.1384657769859</v>
       </c>
       <c r="N28" t="n">
-        <v>1421.322856341475</v>
+        <v>1309.696072695187</v>
       </c>
       <c r="O28" t="n">
-        <v>1522.880399639415</v>
+        <v>1788.955940296331</v>
       </c>
       <c r="P28" t="n">
-        <v>1919.439056802507</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q28" t="n">
         <v>2119.80001462269</v>
       </c>
       <c r="R28" t="n">
-        <v>2119.80001462269</v>
+        <v>2115.758214300001</v>
       </c>
       <c r="S28" t="n">
-        <v>2119.80001462269</v>
+        <v>2115.758214300001</v>
       </c>
       <c r="T28" t="n">
-        <v>1880.279976834643</v>
+        <v>1876.238176511954</v>
       </c>
       <c r="U28" t="n">
-        <v>1600.144285483705</v>
+        <v>1596.102485161016</v>
       </c>
       <c r="V28" t="n">
-        <v>1600.144285483705</v>
+        <v>1314.391017769045</v>
       </c>
       <c r="W28" t="n">
-        <v>1558.761050024362</v>
+        <v>1039.538613941558</v>
       </c>
       <c r="X28" t="n">
-        <v>1316.197153470168</v>
+        <v>796.9747173873634</v>
       </c>
       <c r="Y28" t="n">
-        <v>1089.85438515991</v>
+        <v>570.6319490771054</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1194.053486479306</v>
+        <v>1316.789742770196</v>
       </c>
       <c r="C29" t="n">
-        <v>1147.326571644523</v>
+        <v>1316.789742770196</v>
       </c>
       <c r="D29" t="n">
-        <v>1147.326571644523</v>
+        <v>893.497121955196</v>
       </c>
       <c r="E29" t="n">
-        <v>1147.326571644523</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="F29" t="n">
-        <v>722.2023898339227</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="G29" t="n">
-        <v>319.8560819119778</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="H29" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I29" t="n">
-        <v>83.49041341423299</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J29" t="n">
-        <v>220.131462129948</v>
+        <v>220.1314621299488</v>
       </c>
       <c r="K29" t="n">
-        <v>433.1659828319409</v>
+        <v>433.1659828319419</v>
       </c>
       <c r="L29" t="n">
-        <v>703.4506798655938</v>
+        <v>703.4506798655947</v>
       </c>
       <c r="M29" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N29" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O29" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273004</v>
       </c>
       <c r="P29" t="n">
-        <v>1856.646746816144</v>
+        <v>1856.646746816145</v>
       </c>
       <c r="Q29" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420095</v>
       </c>
       <c r="R29" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S29" t="n">
-        <v>2060.84261340495</v>
+        <v>2079.616427689056</v>
       </c>
       <c r="T29" t="n">
-        <v>1848.640325223458</v>
+        <v>2079.616427689056</v>
       </c>
       <c r="U29" t="n">
-        <v>1590.444836178959</v>
+        <v>2079.616427689056</v>
       </c>
       <c r="V29" t="n">
-        <v>1590.444836178959</v>
+        <v>1722.127012815306</v>
       </c>
       <c r="W29" t="n">
-        <v>1194.053486479306</v>
+        <v>1722.127012815306</v>
       </c>
       <c r="X29" t="n">
-        <v>1194.053486479306</v>
+        <v>1722.127012815306</v>
       </c>
       <c r="Y29" t="n">
-        <v>1194.053486479306</v>
+        <v>1316.789742770196</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G30" t="n">
-        <v>85.47467570705001</v>
+        <v>85.47467570705003</v>
       </c>
       <c r="H30" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I30" t="n">
-        <v>62.36450125466528</v>
+        <v>85.82180709907715</v>
       </c>
       <c r="J30" t="n">
-        <v>140.6890736543379</v>
+        <v>164.1463794987498</v>
       </c>
       <c r="K30" t="n">
-        <v>287.2584022575218</v>
+        <v>310.7157081019336</v>
       </c>
       <c r="L30" t="n">
-        <v>766.9697841082979</v>
+        <v>515.3236711252212</v>
       </c>
       <c r="M30" t="n">
-        <v>1008.883117300327</v>
+        <v>757.2370043172499</v>
       </c>
       <c r="N30" t="n">
-        <v>1259.540581385168</v>
+        <v>1007.894468402092</v>
       </c>
       <c r="O30" t="n">
-        <v>1485.232474392533</v>
+        <v>1233.586361409456</v>
       </c>
       <c r="P30" t="n">
-        <v>1663.228492615173</v>
+        <v>1411.582379632096</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R30" t="n">
         <v>1815.547718957572</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>939.7723400861316</v>
+        <v>624.0278184757758</v>
       </c>
       <c r="C31" t="n">
-        <v>767.7997769650476</v>
+        <v>452.0552553546918</v>
       </c>
       <c r="D31" t="n">
-        <v>604.4830040918183</v>
+        <v>288.7384824814625</v>
       </c>
       <c r="E31" t="n">
-        <v>515.4697164073681</v>
+        <v>288.7384824814625</v>
       </c>
       <c r="F31" t="n">
-        <v>343.6079421819285</v>
+        <v>116.8767082560229</v>
       </c>
       <c r="G31" t="n">
-        <v>178.2448535367262</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="H31" t="n">
-        <v>42.39600029245378</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="I31" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="J31" t="n">
-        <v>83.90537476982989</v>
+        <v>83.9053747698299</v>
       </c>
       <c r="K31" t="n">
         <v>164.9364244520256</v>
       </c>
       <c r="L31" t="n">
-        <v>649.8768557490351</v>
+        <v>471.5421234521616</v>
       </c>
       <c r="M31" t="n">
-        <v>1174.527359368151</v>
+        <v>996.1926270712773</v>
       </c>
       <c r="N31" t="n">
-        <v>1288.052043444472</v>
+        <v>1507.750233989479</v>
       </c>
       <c r="O31" t="n">
-        <v>1522.880399639414</v>
+        <v>1987.010101590622</v>
       </c>
       <c r="P31" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180407</v>
       </c>
       <c r="Q31" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="R31" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S31" t="n">
-        <v>1965.242876170043</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="T31" t="n">
-        <v>1965.242876170043</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="U31" t="n">
-        <v>1965.242876170043</v>
+        <v>1839.664323271752</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.531408778071</v>
+        <v>1557.952855879781</v>
       </c>
       <c r="W31" t="n">
-        <v>1408.679004950584</v>
+        <v>1283.100452052294</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.11510839639</v>
+        <v>1040.536555498099</v>
       </c>
       <c r="Y31" t="n">
-        <v>939.7723400861316</v>
+        <v>814.1937871878415</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.397851941896</v>
+        <v>891.665560959596</v>
       </c>
       <c r="C32" t="n">
-        <v>893.497121955196</v>
+        <v>891.665560959596</v>
       </c>
       <c r="D32" t="n">
-        <v>893.497121955196</v>
+        <v>468.3729401445962</v>
       </c>
       <c r="E32" t="n">
-        <v>467.5201821030536</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="F32" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="G32" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="H32" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I32" t="n">
-        <v>83.49041341423381</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J32" t="n">
-        <v>220.1314621299484</v>
+        <v>220.1314621299491</v>
       </c>
       <c r="K32" t="n">
-        <v>433.1659828319415</v>
+        <v>433.1659828319422</v>
       </c>
       <c r="L32" t="n">
-        <v>703.4506798655942</v>
+        <v>703.450679865595</v>
       </c>
       <c r="M32" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N32" t="n">
         <v>1320.93021977883</v>
@@ -6718,34 +6718,34 @@
         <v>1612.988324273003</v>
       </c>
       <c r="P32" t="n">
-        <v>1856.646746816144</v>
+        <v>1856.646746816145</v>
       </c>
       <c r="Q32" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420095</v>
       </c>
       <c r="R32" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S32" t="n">
-        <v>2060.84261340495</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="T32" t="n">
-        <v>1848.640325223458</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="U32" t="n">
-        <v>1716.789201641549</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="V32" t="n">
-        <v>1716.789201641549</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="W32" t="n">
-        <v>1320.397851941896</v>
+        <v>1723.233924083379</v>
       </c>
       <c r="X32" t="n">
-        <v>1320.397851941896</v>
+        <v>1311.513925251126</v>
       </c>
       <c r="Y32" t="n">
-        <v>1320.397851941896</v>
+        <v>1311.513925251126</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G33" t="n">
-        <v>85.47467570705001</v>
+        <v>85.47467570705003</v>
       </c>
       <c r="H33" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I33" t="n">
-        <v>62.36450125466528</v>
+        <v>85.82180709907715</v>
       </c>
       <c r="J33" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969207</v>
       </c>
       <c r="K33" t="n">
-        <v>287.2584022575218</v>
+        <v>456.9063208001045</v>
       </c>
       <c r="L33" t="n">
-        <v>491.8663652808093</v>
+        <v>661.514283823392</v>
       </c>
       <c r="M33" t="n">
-        <v>733.779698472838</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N33" t="n">
-        <v>984.4371625576798</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O33" t="n">
-        <v>1210.129055565045</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P33" t="n">
-        <v>1388.125073787684</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q33" t="n">
         <v>1668.646747295068</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>588.4676322140942</v>
+        <v>386.2303376389774</v>
       </c>
       <c r="C34" t="n">
-        <v>416.4950690930103</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="D34" t="n">
-        <v>416.4950690930103</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="E34" t="n">
-        <v>416.4950690930103</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="F34" t="n">
-        <v>416.4950690930103</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="G34" t="n">
-        <v>251.1319804478079</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="H34" t="n">
-        <v>115.2831272035355</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I34" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="J34" t="n">
-        <v>161.8270914180507</v>
+        <v>83.9053747698299</v>
       </c>
       <c r="K34" t="n">
-        <v>242.8581411002464</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L34" t="n">
-        <v>405.4453443428341</v>
+        <v>556.818841720734</v>
       </c>
       <c r="M34" t="n">
-        <v>930.0958479619496</v>
+        <v>1081.46934533985</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.620532038271</v>
+        <v>1194.994029416171</v>
       </c>
       <c r="O34" t="n">
-        <v>1522.880399639414</v>
+        <v>1674.253897017314</v>
       </c>
       <c r="P34" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180407</v>
       </c>
       <c r="Q34" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="R34" t="n">
         <v>2112.953544269471</v>
       </c>
       <c r="S34" t="n">
-        <v>1958.396405816824</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="T34" t="n">
-        <v>1718.876368028777</v>
+        <v>1873.433506481424</v>
       </c>
       <c r="U34" t="n">
-        <v>1438.740676677839</v>
+        <v>1593.297815130486</v>
       </c>
       <c r="V34" t="n">
-        <v>1438.740676677839</v>
+        <v>1320.155375042983</v>
       </c>
       <c r="W34" t="n">
-        <v>1247.540265790613</v>
+        <v>1045.302971215496</v>
       </c>
       <c r="X34" t="n">
-        <v>1004.976369236418</v>
+        <v>802.7390746613009</v>
       </c>
       <c r="Y34" t="n">
-        <v>778.6336009261599</v>
+        <v>576.396306351043</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1045.364811587007</v>
+        <v>1317.713532904753</v>
       </c>
       <c r="C35" t="n">
-        <v>1045.364811587007</v>
+        <v>890.8128029180533</v>
       </c>
       <c r="D35" t="n">
-        <v>1045.364811587007</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="E35" t="n">
-        <v>722.2023898339227</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="F35" t="n">
-        <v>722.2023898339227</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="G35" t="n">
-        <v>319.8560819119778</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="H35" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I35" t="n">
         <v>83.4904134142339</v>
@@ -6955,34 +6955,34 @@
         <v>1612.988324273003</v>
       </c>
       <c r="P35" t="n">
-        <v>1856.646746816144</v>
+        <v>1856.646746816145</v>
       </c>
       <c r="Q35" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420095</v>
       </c>
       <c r="R35" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S35" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="T35" t="n">
-        <v>2119.800014622689</v>
+        <v>1907.597726441198</v>
       </c>
       <c r="U35" t="n">
-        <v>1861.60452557819</v>
+        <v>1907.597726441198</v>
       </c>
       <c r="V35" t="n">
-        <v>1861.60452557819</v>
+        <v>1737.561897196283</v>
       </c>
       <c r="W35" t="n">
-        <v>1465.213175878537</v>
+        <v>1737.561897196283</v>
       </c>
       <c r="X35" t="n">
-        <v>1465.213175878537</v>
+        <v>1737.561897196283</v>
       </c>
       <c r="Y35" t="n">
-        <v>1465.213175878537</v>
+        <v>1737.561897196283</v>
       </c>
     </row>
     <row r="36">
@@ -7007,19 +7007,19 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G36" t="n">
-        <v>85.47467570705001</v>
+        <v>85.47467570705003</v>
       </c>
       <c r="H36" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I36" t="n">
-        <v>62.36450125466528</v>
+        <v>62.36450125466529</v>
       </c>
       <c r="J36" t="n">
-        <v>140.6890736543379</v>
+        <v>415.7924924818265</v>
       </c>
       <c r="K36" t="n">
-        <v>287.2584022575218</v>
+        <v>562.3618210850103</v>
       </c>
       <c r="L36" t="n">
         <v>766.9697841082979</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.6424432704349</v>
+        <v>384.5077806877284</v>
       </c>
       <c r="C37" t="n">
-        <v>616.6698801493509</v>
+        <v>212.5352175666444</v>
       </c>
       <c r="D37" t="n">
-        <v>453.3531072761216</v>
+        <v>212.5352175666444</v>
       </c>
       <c r="E37" t="n">
-        <v>287.1449014289751</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="F37" t="n">
         <v>115.2831272035355</v>
@@ -7092,55 +7092,55 @@
         <v>115.2831272035355</v>
       </c>
       <c r="I37" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="J37" t="n">
-        <v>161.8270914180507</v>
+        <v>83.9053747698299</v>
       </c>
       <c r="K37" t="n">
-        <v>490.1407502142685</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L37" t="n">
-        <v>975.081181511278</v>
+        <v>471.5421234521616</v>
       </c>
       <c r="M37" t="n">
-        <v>1499.731685130394</v>
+        <v>996.1926270712773</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.079060914782</v>
+        <v>1507.750233989479</v>
       </c>
       <c r="O37" t="n">
-        <v>1835.636604212722</v>
+        <v>1987.010101590622</v>
       </c>
       <c r="P37" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180407</v>
       </c>
       <c r="Q37" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="R37" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S37" t="n">
-        <v>1958.396405816824</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="T37" t="n">
-        <v>1761.715051512217</v>
+        <v>1880.279976834643</v>
       </c>
       <c r="U37" t="n">
-        <v>1761.715051512217</v>
+        <v>1600.144285483705</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.003584120245</v>
+        <v>1318.432818091734</v>
       </c>
       <c r="W37" t="n">
-        <v>1205.151180292758</v>
+        <v>1043.580414264247</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.151180292758</v>
+        <v>801.016517710052</v>
       </c>
       <c r="Y37" t="n">
-        <v>978.8084119825005</v>
+        <v>574.673749399794</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1708.080015790436</v>
+        <v>1743.690472756896</v>
       </c>
       <c r="C38" t="n">
         <v>1316.789742770196</v>
@@ -7162,64 +7162,64 @@
         <v>467.5201821030536</v>
       </c>
       <c r="F38" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="G38" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="H38" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I38" t="n">
-        <v>83.49041341423299</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J38" t="n">
-        <v>220.131462129948</v>
+        <v>220.1314621299488</v>
       </c>
       <c r="K38" t="n">
-        <v>433.1659828319409</v>
+        <v>433.1659828319419</v>
       </c>
       <c r="L38" t="n">
-        <v>703.4506798655938</v>
+        <v>703.4506798655947</v>
       </c>
       <c r="M38" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N38" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.930219778831</v>
       </c>
       <c r="O38" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273004</v>
       </c>
       <c r="P38" t="n">
-        <v>1856.646746816144</v>
+        <v>1856.646746816145</v>
       </c>
       <c r="Q38" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420095</v>
       </c>
       <c r="R38" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S38" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="T38" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="U38" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="V38" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="W38" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="X38" t="n">
-        <v>1708.080015790436</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="Y38" t="n">
-        <v>1708.080015790436</v>
+        <v>2060.842613404951</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G39" t="n">
-        <v>85.47467570705001</v>
+        <v>85.47467570705003</v>
       </c>
       <c r="H39" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I39" t="n">
-        <v>62.36450125466528</v>
+        <v>85.82180709907715</v>
       </c>
       <c r="J39" t="n">
-        <v>140.6890736543379</v>
+        <v>164.1463794987498</v>
       </c>
       <c r="K39" t="n">
-        <v>287.2584022575218</v>
+        <v>310.7157081019336</v>
       </c>
       <c r="L39" t="n">
-        <v>491.8663652808093</v>
+        <v>515.3236711252212</v>
       </c>
       <c r="M39" t="n">
-        <v>733.779698472838</v>
+        <v>757.2370043172499</v>
       </c>
       <c r="N39" t="n">
-        <v>984.4371625576798</v>
+        <v>1007.894468402092</v>
       </c>
       <c r="O39" t="n">
-        <v>1379.776974107627</v>
+        <v>1233.586361409456</v>
       </c>
       <c r="P39" t="n">
-        <v>1557.772992330267</v>
+        <v>1411.582379632096</v>
       </c>
       <c r="Q39" t="n">
         <v>1668.646747295068</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>934.2251815539671</v>
+        <v>386.2303376389774</v>
       </c>
       <c r="C40" t="n">
-        <v>762.2526184328831</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="D40" t="n">
-        <v>754.5650491655963</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="E40" t="n">
-        <v>588.3568433184498</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="F40" t="n">
-        <v>416.4950690930103</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="G40" t="n">
-        <v>251.1319804478079</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="H40" t="n">
-        <v>115.2831272035355</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I40" t="n">
-        <v>42.39600029245378</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="J40" t="n">
-        <v>161.8270914180507</v>
+        <v>161.8270914180508</v>
       </c>
       <c r="K40" t="n">
         <v>490.1407502142685</v>
       </c>
       <c r="L40" t="n">
-        <v>975.081181511278</v>
+        <v>975.0811815112781</v>
       </c>
       <c r="M40" t="n">
         <v>1499.731685130394</v>
       </c>
       <c r="N40" t="n">
-        <v>1885.452558292681</v>
+        <v>1613.256369206715</v>
       </c>
       <c r="O40" t="n">
-        <v>1987.010101590621</v>
+        <v>1714.813912504655</v>
       </c>
       <c r="P40" t="n">
-        <v>2070.812554180406</v>
+        <v>1919.439056802507</v>
       </c>
       <c r="Q40" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="R40" t="n">
         <v>2112.953544269471</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.953544269471</v>
+        <v>1958.396405816825</v>
       </c>
       <c r="T40" t="n">
-        <v>1873.433506481423</v>
+        <v>1718.876368028778</v>
       </c>
       <c r="U40" t="n">
-        <v>1593.297815130486</v>
+        <v>1438.74067667784</v>
       </c>
       <c r="V40" t="n">
-        <v>1593.297815130486</v>
+        <v>1157.029209285869</v>
       </c>
       <c r="W40" t="n">
-        <v>1593.297815130486</v>
+        <v>882.1768054583818</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.733918576291</v>
+        <v>639.6129089041868</v>
       </c>
       <c r="Y40" t="n">
-        <v>1124.391150266033</v>
+        <v>576.396306351043</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1640.99424911342</v>
+        <v>870.7192480665411</v>
       </c>
       <c r="C41" t="n">
-        <v>1640.99424911342</v>
+        <v>870.7192480665411</v>
       </c>
       <c r="D41" t="n">
-        <v>1573.303511496665</v>
+        <v>870.7192480665411</v>
       </c>
       <c r="E41" t="n">
-        <v>1147.326571644523</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="F41" t="n">
-        <v>722.2023898339227</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="G41" t="n">
-        <v>319.8560819119778</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="H41" t="n">
-        <v>42.39600029245379</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I41" t="n">
-        <v>83.49041341423384</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J41" t="n">
-        <v>220.1314621299488</v>
+        <v>220.1314621299491</v>
       </c>
       <c r="K41" t="n">
-        <v>433.1659828319419</v>
+        <v>433.1659828319422</v>
       </c>
       <c r="L41" t="n">
-        <v>703.4506798655947</v>
+        <v>703.450679865595</v>
       </c>
       <c r="M41" t="n">
         <v>1009.340767185891</v>
@@ -7438,25 +7438,25 @@
         <v>2119.80001462269</v>
       </c>
       <c r="S41" t="n">
-        <v>2060.84261340495</v>
+        <v>2092.296232102834</v>
       </c>
       <c r="T41" t="n">
-        <v>2060.84261340495</v>
+        <v>2092.296232102834</v>
       </c>
       <c r="U41" t="n">
-        <v>2060.84261340495</v>
+        <v>2092.296232102834</v>
       </c>
       <c r="V41" t="n">
-        <v>2060.84261340495</v>
+        <v>2092.296232102834</v>
       </c>
       <c r="W41" t="n">
-        <v>2060.84261340495</v>
+        <v>1695.904882403181</v>
       </c>
       <c r="X41" t="n">
-        <v>2060.84261340495</v>
+        <v>1695.904882403181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2060.84261340495</v>
+        <v>1290.567612358071</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G42" t="n">
-        <v>85.47467570705001</v>
+        <v>85.47467570705003</v>
       </c>
       <c r="H42" t="n">
-        <v>42.39600029245379</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I42" t="n">
-        <v>62.36450125466529</v>
+        <v>85.82180709907715</v>
       </c>
       <c r="J42" t="n">
-        <v>140.689073654338</v>
+        <v>310.3369921969207</v>
       </c>
       <c r="K42" t="n">
-        <v>287.2584022575218</v>
+        <v>456.9063208001045</v>
       </c>
       <c r="L42" t="n">
-        <v>491.8663652808093</v>
+        <v>661.514283823392</v>
       </c>
       <c r="M42" t="n">
-        <v>1008.883117300326</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N42" t="n">
-        <v>1259.540581385168</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O42" t="n">
-        <v>1485.232474392533</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P42" t="n">
-        <v>1663.228492615173</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R42" t="n">
         <v>1815.547718957572</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.910199157409</v>
+        <v>386.2303376389774</v>
       </c>
       <c r="C43" t="n">
-        <v>542.937636036325</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="D43" t="n">
-        <v>379.6208631630957</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="E43" t="n">
-        <v>379.6208631630957</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="F43" t="n">
-        <v>207.7590889376561</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="G43" t="n">
-        <v>42.39600029245379</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="H43" t="n">
-        <v>42.39600029245379</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I43" t="n">
-        <v>42.39600029245379</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="J43" t="n">
-        <v>161.8270914180508</v>
+        <v>83.9053747698299</v>
       </c>
       <c r="K43" t="n">
-        <v>490.1407502142686</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L43" t="n">
-        <v>598.6922879201131</v>
+        <v>649.8768557490353</v>
       </c>
       <c r="M43" t="n">
-        <v>1123.342791539229</v>
+        <v>764.8587032009817</v>
       </c>
       <c r="N43" t="n">
-        <v>1356.376736611579</v>
+        <v>1276.416310119183</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.636604212722</v>
+        <v>1755.676177720326</v>
       </c>
       <c r="P43" t="n">
-        <v>1919.439056802507</v>
+        <v>2070.812554180407</v>
       </c>
       <c r="Q43" t="n">
         <v>2119.80001462269</v>
       </c>
       <c r="R43" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S43" t="n">
-        <v>1958.396405816824</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="T43" t="n">
-        <v>1718.876368028777</v>
+        <v>1880.279976834643</v>
       </c>
       <c r="U43" t="n">
-        <v>1438.740676677839</v>
+        <v>1600.144285483705</v>
       </c>
       <c r="V43" t="n">
-        <v>1157.029209285868</v>
+        <v>1318.432818091734</v>
       </c>
       <c r="W43" t="n">
-        <v>1157.029209285868</v>
+        <v>1043.580414264247</v>
       </c>
       <c r="X43" t="n">
-        <v>1131.418936179733</v>
+        <v>802.7390746613009</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.0761678694746</v>
+        <v>576.396306351043</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>869.8664900249985</v>
+        <v>1743.690472756896</v>
       </c>
       <c r="C44" t="n">
-        <v>869.8664900249985</v>
+        <v>1316.789742770196</v>
       </c>
       <c r="D44" t="n">
-        <v>869.8664900249985</v>
+        <v>893.497121955196</v>
       </c>
       <c r="E44" t="n">
-        <v>869.8664900249985</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="F44" t="n">
-        <v>444.7423082143987</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="G44" t="n">
         <v>42.3960002924538</v>
@@ -7648,13 +7648,13 @@
         <v>83.4904134142339</v>
       </c>
       <c r="J44" t="n">
-        <v>220.1314621299489</v>
+        <v>220.1314621299484</v>
       </c>
       <c r="K44" t="n">
-        <v>433.165982831942</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L44" t="n">
-        <v>703.4506798655947</v>
+        <v>703.4506798655945</v>
       </c>
       <c r="M44" t="n">
         <v>1009.340767185891</v>
@@ -7663,7 +7663,7 @@
         <v>1320.93021977883</v>
       </c>
       <c r="O44" t="n">
-        <v>1612.988324273004</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P44" t="n">
         <v>1856.646746816145</v>
@@ -7681,19 +7681,19 @@
         <v>2060.842613404951</v>
       </c>
       <c r="U44" t="n">
-        <v>1802.647124360452</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="V44" t="n">
-        <v>1445.157709486701</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="W44" t="n">
-        <v>1445.157709486701</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="X44" t="n">
-        <v>1033.437710654448</v>
+        <v>2060.842613404951</v>
       </c>
       <c r="Y44" t="n">
-        <v>1033.437710654448</v>
+        <v>2060.842613404951</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>42.3960002924538</v>
       </c>
       <c r="I45" t="n">
-        <v>63.47488054787974</v>
+        <v>85.82180709907715</v>
       </c>
       <c r="J45" t="n">
-        <v>141.7994529475524</v>
+        <v>310.3369921969205</v>
       </c>
       <c r="K45" t="n">
-        <v>288.3687815507362</v>
+        <v>456.9063208001044</v>
       </c>
       <c r="L45" t="n">
-        <v>492.9767445740238</v>
+        <v>661.5142838233919</v>
       </c>
       <c r="M45" t="n">
-        <v>734.8900777660525</v>
+        <v>903.4276170154207</v>
       </c>
       <c r="N45" t="n">
-        <v>1259.540581385168</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O45" t="n">
-        <v>1485.232474392533</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P45" t="n">
-        <v>1663.228492615173</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R45" t="n">
         <v>1815.547718957572</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>954.0055319156373</v>
+        <v>851.6041696036256</v>
       </c>
       <c r="C46" t="n">
-        <v>782.0329687945533</v>
+        <v>679.6316064825415</v>
       </c>
       <c r="D46" t="n">
-        <v>618.716195921324</v>
+        <v>516.3148336093122</v>
       </c>
       <c r="E46" t="n">
-        <v>452.5079900741775</v>
+        <v>350.1066277621658</v>
       </c>
       <c r="F46" t="n">
-        <v>280.6462158487379</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="G46" t="n">
-        <v>115.2831272035355</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H46" t="n">
-        <v>115.2831272035355</v>
+        <v>42.3960002924538</v>
       </c>
       <c r="I46" t="n">
         <v>42.3960002924538</v>
@@ -7812,16 +7812,16 @@
         <v>490.1407502142686</v>
       </c>
       <c r="L46" t="n">
-        <v>697.8709503774656</v>
+        <v>975.0811815112781</v>
       </c>
       <c r="M46" t="n">
-        <v>1222.521453996581</v>
+        <v>1307.798172265154</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.079060914783</v>
+        <v>1421.322856341475</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.636604212723</v>
+        <v>1522.880399639415</v>
       </c>
       <c r="P46" t="n">
         <v>1919.439056802507</v>
@@ -7830,28 +7830,28 @@
         <v>2119.80001462269</v>
       </c>
       <c r="R46" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="S46" t="n">
-        <v>1958.396405816825</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="T46" t="n">
-        <v>1958.396405816825</v>
+        <v>2119.80001462269</v>
       </c>
       <c r="U46" t="n">
-        <v>1678.260714465887</v>
+        <v>1839.664323271752</v>
       </c>
       <c r="V46" t="n">
-        <v>1396.549247073916</v>
+        <v>1557.952855879781</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.171500627703</v>
+        <v>1283.100452052294</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.171500627703</v>
+        <v>1268.112906625949</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.171500627703</v>
+        <v>1041.770138315691</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M2" t="n">
-        <v>10.50014909015127</v>
+        <v>10.50014909015128</v>
       </c>
       <c r="N2" t="n">
         <v>9.912735448118685</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13.34699725816536</v>
+        <v>13.34699725816537</v>
       </c>
       <c r="J3" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K3" t="n">
-        <v>9.147977155514765</v>
+        <v>9.147977155514766</v>
       </c>
       <c r="L3" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M3" t="n">
-        <v>2.304073385794617</v>
+        <v>2.30407338579462</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P3" t="n">
-        <v>6.10054723088008</v>
+        <v>6.100547230880082</v>
       </c>
       <c r="Q3" t="n">
         <v>12.27186175772305</v>
@@ -8224,7 +8224,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M5" t="n">
-        <v>10.50014909015127</v>
+        <v>10.50014909015128</v>
       </c>
       <c r="N5" t="n">
         <v>9.912735448118685</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13.34699725816536</v>
+        <v>13.34699725816537</v>
       </c>
       <c r="J6" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K6" t="n">
-        <v>9.147977155514765</v>
+        <v>9.147977155514766</v>
       </c>
       <c r="L6" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M6" t="n">
-        <v>2.304073385794617</v>
+        <v>2.30407338579462</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P6" t="n">
-        <v>6.10054723088008</v>
+        <v>6.100547230880082</v>
       </c>
       <c r="Q6" t="n">
         <v>12.27186175772305</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>277.8822412398873</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>254.1879929121991</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>286.1928076392556</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>413.8067234011809</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>112.7543269154417</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>277.882241239887</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>254.1879929121988</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9090,16 +9090,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>218.6077904948384</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>219.9344881837663</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>277.8822412398873</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>171.3615338813968</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9333,16 +9333,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>307.2348696463963</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>219.9344881837663</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>147.667285553708</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>277.8822412398877</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>166.906206829261</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>307.2348696463969</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>147.667285553708</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>147.6672855537081</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>178.8892718238108</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>413.806723401181</v>
+        <v>413.8067234011809</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>100.1804671286383</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>147.667285553708</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>276.7606459942162</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.121595245671131</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>186.3185663898233</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>413.8067234011812</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>200.0547083780716</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>277.8822412398874</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>147.6672855537078</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,22 +10275,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>200.0547083780721</v>
       </c>
       <c r="M31" t="n">
-        <v>413.8067234011809</v>
+        <v>413.8067234011812</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>134.6169827242447</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>147.667285553708</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>171.3615338813965</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>54.58148034014454</v>
+        <v>286.1928076392563</v>
       </c>
       <c r="M34" t="n">
-        <v>413.806723401181</v>
+        <v>413.8067234011812</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>277.8822412398874</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>277.8822412398874</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>200.0547083780721</v>
       </c>
       <c r="M37" t="n">
-        <v>413.8067234011809</v>
+        <v>413.8067234011812</v>
       </c>
       <c r="N37" t="n">
-        <v>122.0431229374416</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>171.3615338813966</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>147.6672855537078</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10989,19 +10989,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>413.8067234011809</v>
+        <v>413.8067234011811</v>
       </c>
       <c r="N40" t="n">
-        <v>274.9456455413802</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>122.043122937442</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>147.667285553708</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>277.8822412398873</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>413.806723401181</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>120.7164252485142</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>233.6706301720157</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.121595245671156</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>147.6672855537078</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>276.7606459942161</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>100.1804671286389</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>413.8067234011812</v>
+        <v>219.9344881837669</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.142297892192687</v>
+        <v>0.142297892192675</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.142297892192687</v>
+        <v>0.142297892192675</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226.7196178932202</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.3678272055618</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>48.48318465549363</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.778005649686222</v>
       </c>
       <c r="S13" t="n">
-        <v>153.0115670681201</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.958053295527549</v>
       </c>
       <c r="U13" t="n">
-        <v>31.84461324206703</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23506,10 +23506,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.36782720556179</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>249.2870478330164</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>118.4965360043966</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>96.64411197263362</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.778005649686214</v>
       </c>
       <c r="S16" t="n">
         <v>153.01156706812</v>
       </c>
       <c r="T16" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>2.347663204606818</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>167.3753129031969</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.36782720556178</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U17" t="n">
         <v>255.6135341540542</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>339.9865195678458</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>157.1607334988121</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>122.7737877934629</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>72.15825564197091</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>245.3346176964707</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.3678272055618</v>
+        <v>58.36782720556179</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.5006549137886</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.705331381736528</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>33.63583993775654</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.15825564197091</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.778005649686236</v>
+        <v>6.778005649686222</v>
       </c>
       <c r="S22" t="n">
         <v>153.01156706812</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>81.23598829807827</v>
       </c>
       <c r="G23" t="n">
         <v>398.3228448427254</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.36782720556179</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.080265299677</v>
@@ -24265,16 +24265,16 @@
         <v>255.6135341540542</v>
       </c>
       <c r="V23" t="n">
-        <v>235.9995718944244</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.15825564197091</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.778005649686222</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.124837410167</v>
+        <v>41.09202177117965</v>
       </c>
       <c r="U25" t="n">
-        <v>116.8524220032912</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>183.580996336859</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>251.6495151455502</v>
       </c>
       <c r="H26" t="n">
         <v>274.6854808033287</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.36782720556179</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.080265299677</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.15825564197091</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.778005649686222</v>
+        <v>2.776623330224872</v>
       </c>
       <c r="S28" t="n">
         <v>153.01156706812</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>231.134476684463</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>376.3720770003975</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>18.58607614126397</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>76.42296898106925</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>162.1318125167878</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I31" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>6.778005649686222</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T31" t="n">
         <v>237.124837410167</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.3228448427254</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U32" t="n">
-        <v>125.0809218079641</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>58.19483377430009</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25086,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.15825564197091</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>8.483337031422707</v>
       </c>
       <c r="W34" t="n">
-        <v>82.81547301085806</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>101.7863729180679</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>58.36782720556179</v>
       </c>
       <c r="T35" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>185.5790497725474</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68.26655432919723</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.7094577587503</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.778005649686222</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T37" t="n">
-        <v>42.41029664860571</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>101.6692614070399</v>
       </c>
       <c r="C38" t="n">
-        <v>35.25435239679462</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.36782720556179</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.080265299677</v>
@@ -25456,7 +25456,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0729115698831</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.15825564197091</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>161.494904099543</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>352.0458643662619</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>31.13908251090387</v>
       </c>
       <c r="T41" t="n">
         <v>210.080265299677</v>
@@ -25690,13 +25690,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H43" t="n">
         <v>134.4903647118297</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.778005649686222</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>214.7840872135785</v>
+        <v>1.705331381736471</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>253.7143722254593</v>
+        <v>101.6692614070399</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H44" t="n">
         <v>274.6854808033287</v>
@@ -25921,16 +25921,16 @@
         <v>210.080265299677</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.15825564197091</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.778005649686222</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T46" t="n">
         <v>237.124837410167</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>22.24991080746102</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>225.3005876165712</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>346146.2805851875</v>
+        <v>346146.2805851877</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>346146.2805851875</v>
+        <v>346146.2805851876</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>346146.2805851876</v>
+        <v>346146.2805851877</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>346146.2805851875</v>
+        <v>346146.2805851877</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>346146.2805851876</v>
+        <v>346146.2805851877</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>346146.2805851875</v>
+        <v>346146.2805851877</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>346146.2805851875</v>
+        <v>346146.2805851877</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>346146.2805851876</v>
+        <v>346146.2805851877</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>459015.5359796922</v>
+        <v>459015.5359796917</v>
       </c>
       <c r="C2" t="n">
-        <v>459015.5359796922</v>
+        <v>459015.5359796918</v>
       </c>
       <c r="D2" t="n">
         <v>459016.6182600351</v>
@@ -26325,25 +26325,25 @@
         <v>271455.1358317434</v>
       </c>
       <c r="F2" t="n">
-        <v>271455.1358317433</v>
+        <v>271455.1358317435</v>
       </c>
       <c r="G2" t="n">
-        <v>271455.1358317433</v>
+        <v>271455.1358317434</v>
       </c>
       <c r="H2" t="n">
-        <v>271455.1358317434</v>
+        <v>271455.1358317435</v>
       </c>
       <c r="I2" t="n">
         <v>271455.1358317434</v>
       </c>
       <c r="J2" t="n">
-        <v>271455.1358317435</v>
+        <v>271455.1358317434</v>
       </c>
       <c r="K2" t="n">
-        <v>271455.1358317435</v>
+        <v>271455.1358317433</v>
       </c>
       <c r="L2" t="n">
-        <v>271455.1358317435</v>
+        <v>271455.1358317434</v>
       </c>
       <c r="M2" t="n">
         <v>271455.1358317434</v>
@@ -26352,7 +26352,7 @@
         <v>271455.1358317434</v>
       </c>
       <c r="O2" t="n">
-        <v>271455.1358317433</v>
+        <v>271455.1358317434</v>
       </c>
       <c r="P2" t="n">
         <v>271455.1358317435</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>3620.625146095253</v>
       </c>
       <c r="E3" t="n">
-        <v>518446.2164292485</v>
+        <v>518446.2164292487</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132065.6607110081</v>
+        <v>132065.6607110082</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>312088.1817355567</v>
       </c>
       <c r="E4" t="n">
-        <v>24233.30782856199</v>
+        <v>24233.30782856197</v>
       </c>
       <c r="F4" t="n">
-        <v>24233.30782856198</v>
+        <v>24233.30782856197</v>
       </c>
       <c r="G4" t="n">
-        <v>24233.30782856198</v>
+        <v>24233.30782856197</v>
       </c>
       <c r="H4" t="n">
         <v>24233.30782856199</v>
@@ -26444,19 +26444,19 @@
         <v>24233.30782856198</v>
       </c>
       <c r="K4" t="n">
-        <v>24233.30782856198</v>
+        <v>24233.30782856199</v>
       </c>
       <c r="L4" t="n">
-        <v>24233.30782856197</v>
+        <v>24233.30782856199</v>
       </c>
       <c r="M4" t="n">
-        <v>24233.30782856198</v>
+        <v>24233.30782856199</v>
       </c>
       <c r="N4" t="n">
         <v>24233.30782856198</v>
       </c>
       <c r="O4" t="n">
-        <v>24233.30782856198</v>
+        <v>24233.30782856199</v>
       </c>
       <c r="P4" t="n">
         <v>24233.30782856198</v>
@@ -26478,37 +26478,37 @@
         <v>34551.47122049312</v>
       </c>
       <c r="E5" t="n">
-        <v>42919.1075313248</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="F5" t="n">
-        <v>42919.1075313248</v>
+        <v>42919.10753132482</v>
       </c>
       <c r="G5" t="n">
         <v>42919.10753132481</v>
       </c>
       <c r="H5" t="n">
-        <v>42919.10753132481</v>
+        <v>42919.10753132482</v>
       </c>
       <c r="I5" t="n">
         <v>42919.10753132481</v>
       </c>
       <c r="J5" t="n">
+        <v>42919.10753132481</v>
+      </c>
+      <c r="K5" t="n">
         <v>42919.10753132482</v>
       </c>
-      <c r="K5" t="n">
-        <v>42919.10753132481</v>
-      </c>
       <c r="L5" t="n">
-        <v>42919.10753132481</v>
+        <v>42919.10753132482</v>
       </c>
       <c r="M5" t="n">
-        <v>42919.10753132481</v>
+        <v>42919.10753132482</v>
       </c>
       <c r="N5" t="n">
-        <v>42919.10753132481</v>
+        <v>42919.10753132482</v>
       </c>
       <c r="O5" t="n">
-        <v>42919.10753132481</v>
+        <v>42919.10753132482</v>
       </c>
       <c r="P5" t="n">
         <v>42919.10753132483</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74395.58889603772</v>
+        <v>74373.90577594582</v>
       </c>
       <c r="C6" t="n">
-        <v>111159.117138827</v>
+        <v>111137.4340187353</v>
       </c>
       <c r="D6" t="n">
-        <v>108756.3401578901</v>
+        <v>108734.6604199247</v>
       </c>
       <c r="E6" t="n">
-        <v>-314143.4959573918</v>
+        <v>-314751.3053279457</v>
       </c>
       <c r="F6" t="n">
-        <v>204302.7204718565</v>
+        <v>203694.9111013031</v>
       </c>
       <c r="G6" t="n">
-        <v>204302.7204718565</v>
+        <v>203694.9111013029</v>
       </c>
       <c r="H6" t="n">
-        <v>204302.7204718566</v>
+        <v>203694.911101303</v>
       </c>
       <c r="I6" t="n">
-        <v>204302.7204718566</v>
+        <v>203694.9111013029</v>
       </c>
       <c r="J6" t="n">
-        <v>204302.7204718567</v>
+        <v>203694.9111013029</v>
       </c>
       <c r="K6" t="n">
-        <v>204302.7204718567</v>
+        <v>203694.9111013028</v>
       </c>
       <c r="L6" t="n">
-        <v>204302.7204718567</v>
+        <v>203694.9111013029</v>
       </c>
       <c r="M6" t="n">
-        <v>72237.05976084853</v>
+        <v>71629.25039029474</v>
       </c>
       <c r="N6" t="n">
-        <v>204302.7204718566</v>
+        <v>203694.9111013029</v>
       </c>
       <c r="O6" t="n">
-        <v>204302.7204718565</v>
+        <v>203694.9111013029</v>
       </c>
       <c r="P6" t="n">
-        <v>204302.7204718566</v>
+        <v>203694.9111013029</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>490.7407022504557</v>
+        <v>490.7407022504559</v>
       </c>
       <c r="F3" t="n">
-        <v>490.7407022504558</v>
+        <v>490.740702250456</v>
       </c>
       <c r="G3" t="n">
-        <v>490.7407022504558</v>
+        <v>490.7407022504559</v>
       </c>
       <c r="H3" t="n">
-        <v>490.7407022504557</v>
+        <v>490.7407022504559</v>
       </c>
       <c r="I3" t="n">
-        <v>490.7407022504558</v>
+        <v>490.7407022504559</v>
       </c>
       <c r="J3" t="n">
         <v>490.7407022504559</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556724</v>
       </c>
       <c r="F4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556724</v>
       </c>
       <c r="G4" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556724</v>
       </c>
       <c r="H4" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556725</v>
       </c>
       <c r="I4" t="n">
         <v>529.9500036556723</v>
       </c>
       <c r="J4" t="n">
+        <v>529.9500036556724</v>
+      </c>
+      <c r="K4" t="n">
         <v>529.9500036556725</v>
       </c>
-      <c r="K4" t="n">
-        <v>529.9500036556723</v>
-      </c>
       <c r="L4" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556725</v>
       </c>
       <c r="M4" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556725</v>
       </c>
       <c r="N4" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556725</v>
       </c>
       <c r="O4" t="n">
-        <v>529.9500036556724</v>
+        <v>529.9500036556725</v>
       </c>
       <c r="P4" t="n">
         <v>529.9500036556725</v>
@@ -26968,7 +26968,7 @@
         <v>4.22765758861398</v>
       </c>
       <c r="E3" t="n">
-        <v>448.3612884663676</v>
+        <v>448.3612884663679</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556724</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556724</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556724</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I2" t="n">
-        <v>5.912947058195032</v>
+        <v>5.912947058195031</v>
       </c>
       <c r="J2" t="n">
-        <v>13.01741755736932</v>
+        <v>13.01741755736931</v>
       </c>
       <c r="K2" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L2" t="n">
-        <v>24.20355081735588</v>
+        <v>24.20355081735587</v>
       </c>
       <c r="M2" t="n">
         <v>26.93111380928054</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08206226804309516</v>
+        <v>0.08206226804309515</v>
       </c>
       <c r="H3" t="n">
         <v>0.7925487466267348</v>
@@ -31129,7 +31129,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J3" t="n">
-        <v>7.753084718931198</v>
+        <v>7.753084718931197</v>
       </c>
       <c r="K3" t="n">
         <v>13.25125667781857</v>
@@ -31156,13 +31156,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S3" t="n">
-        <v>1.524270636677666</v>
+        <v>1.524270636677665</v>
       </c>
       <c r="T3" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005398833423887841</v>
+        <v>0.00539883342388784</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H4" t="n">
-        <v>0.611678976379896</v>
+        <v>0.6116789763798959</v>
       </c>
       <c r="I4" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J4" t="n">
-        <v>4.864036195609865</v>
+        <v>4.864036195609864</v>
       </c>
       <c r="K4" t="n">
-        <v>7.993105642264891</v>
+        <v>7.99310564226489</v>
       </c>
       <c r="L4" t="n">
         <v>10.22842329214398</v>
@@ -31223,22 +31223,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O4" t="n">
-        <v>9.724319759462801</v>
+        <v>9.7243197594628</v>
       </c>
       <c r="P4" t="n">
-        <v>8.320835482370274</v>
+        <v>8.320835482370272</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.760915185516583</v>
+        <v>5.760915185516582</v>
       </c>
       <c r="R4" t="n">
-        <v>3.093419444964175</v>
+        <v>3.093419444964174</v>
       </c>
       <c r="S4" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2939561542929968</v>
+        <v>0.2939561542929967</v>
       </c>
       <c r="U4" t="n">
         <v>0.003752631756931878</v>
@@ -31284,16 +31284,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I5" t="n">
-        <v>5.912947058195032</v>
+        <v>5.912947058195031</v>
       </c>
       <c r="J5" t="n">
-        <v>13.01741755736932</v>
+        <v>13.01741755736931</v>
       </c>
       <c r="K5" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L5" t="n">
-        <v>24.20355081735588</v>
+        <v>24.20355081735587</v>
       </c>
       <c r="M5" t="n">
         <v>26.93111380928054</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08206226804309516</v>
+        <v>0.08206226804309515</v>
       </c>
       <c r="H6" t="n">
         <v>0.7925487466267348</v>
@@ -31366,7 +31366,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J6" t="n">
-        <v>7.753084718931198</v>
+        <v>7.753084718931197</v>
       </c>
       <c r="K6" t="n">
         <v>13.25125667781857</v>
@@ -31393,13 +31393,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S6" t="n">
-        <v>1.524270636677666</v>
+        <v>1.524270636677665</v>
       </c>
       <c r="T6" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005398833423887841</v>
+        <v>0.00539883342388784</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H7" t="n">
-        <v>0.611678976379896</v>
+        <v>0.6116789763798959</v>
       </c>
       <c r="I7" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J7" t="n">
-        <v>4.864036195609865</v>
+        <v>4.864036195609864</v>
       </c>
       <c r="K7" t="n">
-        <v>7.993105642264891</v>
+        <v>7.99310564226489</v>
       </c>
       <c r="L7" t="n">
         <v>10.22842329214398</v>
@@ -31460,22 +31460,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O7" t="n">
-        <v>9.724319759462801</v>
+        <v>9.7243197594628</v>
       </c>
       <c r="P7" t="n">
-        <v>8.320835482370274</v>
+        <v>8.320835482370272</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.760915185516583</v>
+        <v>5.760915185516582</v>
       </c>
       <c r="R7" t="n">
-        <v>3.093419444964175</v>
+        <v>3.093419444964174</v>
       </c>
       <c r="S7" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2939561542929968</v>
+        <v>0.2939561542929967</v>
       </c>
       <c r="U7" t="n">
         <v>0.003752631756931878</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.972826943720423</v>
+        <v>1.972826943720424</v>
       </c>
       <c r="H11" t="n">
-        <v>20.20421393737679</v>
+        <v>20.2042139373768</v>
       </c>
       <c r="I11" t="n">
-        <v>76.0574107477817</v>
+        <v>76.05741074778173</v>
       </c>
       <c r="J11" t="n">
-        <v>167.4412208145914</v>
+        <v>167.4412208145915</v>
       </c>
       <c r="K11" t="n">
-        <v>250.950985342277</v>
+        <v>250.9509853422771</v>
       </c>
       <c r="L11" t="n">
-        <v>311.326887921161</v>
+        <v>311.3268879211611</v>
       </c>
       <c r="M11" t="n">
-        <v>346.411149081549</v>
+        <v>346.4111490815492</v>
       </c>
       <c r="N11" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353949</v>
       </c>
       <c r="O11" t="n">
-        <v>332.3991457137747</v>
+        <v>332.3991457137749</v>
       </c>
       <c r="P11" t="n">
-        <v>283.6949805406767</v>
+        <v>283.6949805406769</v>
       </c>
       <c r="Q11" t="n">
-        <v>213.043115618689</v>
+        <v>213.0431156186891</v>
       </c>
       <c r="R11" t="n">
-        <v>123.9255905034781</v>
+        <v>123.9255905034782</v>
       </c>
       <c r="S11" t="n">
-        <v>44.95579398002919</v>
+        <v>44.95579398002921</v>
       </c>
       <c r="T11" t="n">
-        <v>8.636049946136158</v>
+        <v>8.636049946136161</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1578261554976338</v>
+        <v>0.1578261554976339</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.055555472765131</v>
+        <v>1.055555472765132</v>
       </c>
       <c r="H12" t="n">
-        <v>10.19444364486324</v>
+        <v>10.19444364486325</v>
       </c>
       <c r="I12" t="n">
-        <v>36.34258974213281</v>
+        <v>36.34258974213282</v>
       </c>
       <c r="J12" t="n">
-        <v>99.72684402997234</v>
+        <v>99.72684402997238</v>
       </c>
       <c r="K12" t="n">
-        <v>170.4490607052361</v>
+        <v>170.4490607052362</v>
       </c>
       <c r="L12" t="n">
-        <v>229.1897968387624</v>
+        <v>229.1897968387625</v>
       </c>
       <c r="M12" t="n">
-        <v>267.4536827264983</v>
+        <v>267.4536827264984</v>
       </c>
       <c r="N12" t="n">
-        <v>274.5323858749979</v>
+        <v>274.532385874998</v>
       </c>
       <c r="O12" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205706</v>
       </c>
       <c r="P12" t="n">
-        <v>201.5647990054749</v>
+        <v>201.564799005475</v>
       </c>
       <c r="Q12" t="n">
-        <v>134.7407301726157</v>
+        <v>134.7407301726158</v>
       </c>
       <c r="R12" t="n">
-        <v>65.53703189676843</v>
+        <v>65.53703189676845</v>
       </c>
       <c r="S12" t="n">
-        <v>19.60647994368565</v>
+        <v>19.60647994368566</v>
       </c>
       <c r="T12" t="n">
-        <v>4.254629295926119</v>
+        <v>4.254629295926121</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06944443899770603</v>
+        <v>0.06944443899770605</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8849422499598381</v>
+        <v>0.8849422499598384</v>
       </c>
       <c r="H13" t="n">
-        <v>7.867941095097475</v>
+        <v>7.867941095097478</v>
       </c>
       <c r="I13" t="n">
-        <v>26.61262693515586</v>
+        <v>26.61262693515588</v>
       </c>
       <c r="J13" t="n">
-        <v>62.56541707216054</v>
+        <v>62.56541707216057</v>
       </c>
       <c r="K13" t="n">
         <v>102.814199586243</v>
@@ -31928,31 +31928,31 @@
         <v>131.5667777803927</v>
       </c>
       <c r="M13" t="n">
-        <v>138.7187201459771</v>
+        <v>138.7187201459772</v>
       </c>
       <c r="N13" t="n">
         <v>135.4202990324906</v>
       </c>
       <c r="O13" t="n">
-        <v>125.0825645670506</v>
+        <v>125.0825645670507</v>
       </c>
       <c r="P13" t="n">
-        <v>107.0297426678698</v>
+        <v>107.0297426678699</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.10184603981881</v>
+        <v>74.10184603981884</v>
       </c>
       <c r="R13" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001236</v>
       </c>
       <c r="S13" t="n">
-        <v>15.42212993793644</v>
+        <v>15.42212993793645</v>
       </c>
       <c r="T13" t="n">
-        <v>3.781116886192034</v>
+        <v>3.781116886192036</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.0482695772705367</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>20.2042139373768</v>
       </c>
       <c r="I14" t="n">
-        <v>76.05741074778172</v>
+        <v>76.05741074778174</v>
       </c>
       <c r="J14" t="n">
         <v>167.4412208145915</v>
@@ -32007,16 +32007,16 @@
         <v>311.3268879211611</v>
       </c>
       <c r="M14" t="n">
-        <v>346.4111490815491</v>
+        <v>346.4111490815492</v>
       </c>
       <c r="N14" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353949</v>
       </c>
       <c r="O14" t="n">
-        <v>332.3991457137748</v>
+        <v>332.3991457137749</v>
       </c>
       <c r="P14" t="n">
-        <v>283.6949805406768</v>
+        <v>283.6949805406769</v>
       </c>
       <c r="Q14" t="n">
         <v>213.0431156186891</v>
@@ -32025,10 +32025,10 @@
         <v>123.9255905034782</v>
       </c>
       <c r="S14" t="n">
-        <v>44.95579398002921</v>
+        <v>44.95579398002922</v>
       </c>
       <c r="T14" t="n">
-        <v>8.63604994613616</v>
+        <v>8.636049946136163</v>
       </c>
       <c r="U14" t="n">
         <v>0.1578261554976339</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.055555472765131</v>
+        <v>1.055555472765132</v>
       </c>
       <c r="H15" t="n">
-        <v>10.19444364486324</v>
+        <v>10.19444364486325</v>
       </c>
       <c r="I15" t="n">
-        <v>36.34258974213282</v>
+        <v>36.34258974213283</v>
       </c>
       <c r="J15" t="n">
-        <v>99.72684402997236</v>
+        <v>99.7268440299724</v>
       </c>
       <c r="K15" t="n">
-        <v>170.4490607052361</v>
+        <v>170.4490607052362</v>
       </c>
       <c r="L15" t="n">
-        <v>229.1897968387624</v>
+        <v>229.1897968387625</v>
       </c>
       <c r="M15" t="n">
-        <v>267.4536827264984</v>
+        <v>267.4536827264985</v>
       </c>
       <c r="N15" t="n">
-        <v>274.5323858749979</v>
+        <v>274.532385874998</v>
       </c>
       <c r="O15" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205706</v>
       </c>
       <c r="P15" t="n">
         <v>201.564799005475</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.7407301726157</v>
+        <v>134.7407301726158</v>
       </c>
       <c r="R15" t="n">
-        <v>65.53703189676844</v>
+        <v>65.53703189676847</v>
       </c>
       <c r="S15" t="n">
-        <v>19.60647994368565</v>
+        <v>19.60647994368566</v>
       </c>
       <c r="T15" t="n">
-        <v>4.25462929592612</v>
+        <v>4.254629295926121</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770607</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8849422499598382</v>
+        <v>0.8849422499598385</v>
       </c>
       <c r="H16" t="n">
-        <v>7.867941095097477</v>
+        <v>7.867941095097479</v>
       </c>
       <c r="I16" t="n">
-        <v>26.61262693515587</v>
+        <v>26.61262693515588</v>
       </c>
       <c r="J16" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216058</v>
       </c>
       <c r="K16" t="n">
         <v>102.814199586243</v>
       </c>
       <c r="L16" t="n">
-        <v>131.5667777803927</v>
+        <v>131.5667777803928</v>
       </c>
       <c r="M16" t="n">
         <v>138.7187201459772</v>
@@ -32171,25 +32171,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O16" t="n">
-        <v>125.0825645670506</v>
+        <v>125.0825645670507</v>
       </c>
       <c r="P16" t="n">
-        <v>107.0297426678698</v>
+        <v>107.0297426678699</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.10184603981882</v>
+        <v>74.10184603981885</v>
       </c>
       <c r="R16" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001237</v>
       </c>
       <c r="S16" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T16" t="n">
-        <v>3.781116886192035</v>
+        <v>3.781116886192037</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.04826957727053671</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>20.2042139373768</v>
       </c>
       <c r="I17" t="n">
-        <v>76.05741074778172</v>
+        <v>76.05741074778173</v>
       </c>
       <c r="J17" t="n">
         <v>167.4412208145915</v>
@@ -32244,16 +32244,16 @@
         <v>311.3268879211611</v>
       </c>
       <c r="M17" t="n">
-        <v>346.4111490815491</v>
+        <v>346.4111490815492</v>
       </c>
       <c r="N17" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353949</v>
       </c>
       <c r="O17" t="n">
-        <v>332.3991457137748</v>
+        <v>332.3991457137749</v>
       </c>
       <c r="P17" t="n">
-        <v>283.6949805406768</v>
+        <v>283.6949805406769</v>
       </c>
       <c r="Q17" t="n">
         <v>213.0431156186891</v>
@@ -32265,7 +32265,7 @@
         <v>44.95579398002921</v>
       </c>
       <c r="T17" t="n">
-        <v>8.63604994613616</v>
+        <v>8.636049946136161</v>
       </c>
       <c r="U17" t="n">
         <v>0.1578261554976339</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.055555472765131</v>
+        <v>1.055555472765132</v>
       </c>
       <c r="H18" t="n">
-        <v>10.19444364486324</v>
+        <v>10.19444364486325</v>
       </c>
       <c r="I18" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J18" t="n">
-        <v>99.72684402997236</v>
+        <v>99.72684402997238</v>
       </c>
       <c r="K18" t="n">
-        <v>170.4490607052361</v>
+        <v>170.4490607052362</v>
       </c>
       <c r="L18" t="n">
-        <v>229.1897968387624</v>
+        <v>229.1897968387625</v>
       </c>
       <c r="M18" t="n">
         <v>267.4536827264984</v>
       </c>
       <c r="N18" t="n">
-        <v>274.5323858749979</v>
+        <v>274.532385874998</v>
       </c>
       <c r="O18" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205706</v>
       </c>
       <c r="P18" t="n">
         <v>201.564799005475</v>
       </c>
       <c r="Q18" t="n">
-        <v>134.7407301726157</v>
+        <v>134.7407301726158</v>
       </c>
       <c r="R18" t="n">
-        <v>65.53703189676844</v>
+        <v>65.53703189676845</v>
       </c>
       <c r="S18" t="n">
-        <v>19.60647994368565</v>
+        <v>19.60647994368566</v>
       </c>
       <c r="T18" t="n">
-        <v>4.25462929592612</v>
+        <v>4.254629295926121</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770605</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8849422499598382</v>
+        <v>0.8849422499598384</v>
       </c>
       <c r="H19" t="n">
-        <v>7.867941095097477</v>
+        <v>7.867941095097478</v>
       </c>
       <c r="I19" t="n">
-        <v>26.61262693515587</v>
+        <v>26.61262693515588</v>
       </c>
       <c r="J19" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216057</v>
       </c>
       <c r="K19" t="n">
         <v>102.814199586243</v>
@@ -32408,25 +32408,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O19" t="n">
-        <v>125.0825645670506</v>
+        <v>125.0825645670507</v>
       </c>
       <c r="P19" t="n">
-        <v>107.0297426678698</v>
+        <v>107.0297426678699</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.10184603981882</v>
+        <v>74.10184603981884</v>
       </c>
       <c r="R19" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001236</v>
       </c>
       <c r="S19" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T19" t="n">
-        <v>3.781116886192035</v>
+        <v>3.781116886192036</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.0482695772705367</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H20" t="n">
-        <v>20.20421393737679</v>
+        <v>20.2042139373768</v>
       </c>
       <c r="I20" t="n">
-        <v>76.0574107477817</v>
+        <v>76.05741074778172</v>
       </c>
       <c r="J20" t="n">
-        <v>167.4412208145914</v>
+        <v>167.4412208145915</v>
       </c>
       <c r="K20" t="n">
-        <v>250.950985342277</v>
+        <v>250.9509853422771</v>
       </c>
       <c r="L20" t="n">
-        <v>311.326887921161</v>
+        <v>311.3268879211611</v>
       </c>
       <c r="M20" t="n">
-        <v>346.4111490815491</v>
+        <v>346.4111490815492</v>
       </c>
       <c r="N20" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353949</v>
       </c>
       <c r="O20" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P20" t="n">
-        <v>283.6949805406768</v>
+        <v>283.6949805406769</v>
       </c>
       <c r="Q20" t="n">
-        <v>213.043115618689</v>
+        <v>213.0431156186891</v>
       </c>
       <c r="R20" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S20" t="n">
-        <v>44.9557939800292</v>
+        <v>44.95579398002921</v>
       </c>
       <c r="T20" t="n">
-        <v>8.63604994613616</v>
+        <v>8.636049946136161</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1578261554976338</v>
+        <v>0.1578261554976339</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.055555472765131</v>
+        <v>1.055555472765132</v>
       </c>
       <c r="H21" t="n">
-        <v>10.19444364486324</v>
+        <v>10.19444364486325</v>
       </c>
       <c r="I21" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J21" t="n">
-        <v>99.72684402997236</v>
+        <v>99.72684402997237</v>
       </c>
       <c r="K21" t="n">
-        <v>170.4490607052361</v>
+        <v>170.4490607052362</v>
       </c>
       <c r="L21" t="n">
         <v>229.1897968387624</v>
@@ -32566,7 +32566,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O21" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205706</v>
       </c>
       <c r="P21" t="n">
         <v>201.564799005475</v>
@@ -32575,7 +32575,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R21" t="n">
-        <v>65.53703189676844</v>
+        <v>65.53703189676845</v>
       </c>
       <c r="S21" t="n">
         <v>19.60647994368565</v>
@@ -32584,7 +32584,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06944443899770603</v>
+        <v>0.06944443899770604</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8849422499598382</v>
+        <v>0.8849422499598383</v>
       </c>
       <c r="H22" t="n">
-        <v>7.867941095097476</v>
+        <v>7.867941095097478</v>
       </c>
       <c r="I22" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J22" t="n">
-        <v>62.56541707216055</v>
+        <v>62.56541707216056</v>
       </c>
       <c r="K22" t="n">
         <v>102.814199586243</v>
@@ -32645,25 +32645,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O22" t="n">
-        <v>125.0825645670506</v>
+        <v>125.0825645670507</v>
       </c>
       <c r="P22" t="n">
-        <v>107.0297426678698</v>
+        <v>107.0297426678699</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.10184603981881</v>
+        <v>74.10184603981884</v>
       </c>
       <c r="R22" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001236</v>
       </c>
       <c r="S22" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T22" t="n">
-        <v>3.781116886192035</v>
+        <v>3.781116886192036</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.04826957727053669</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32718,16 +32718,16 @@
         <v>311.3268879211611</v>
       </c>
       <c r="M23" t="n">
-        <v>346.4111490815491</v>
+        <v>346.4111490815492</v>
       </c>
       <c r="N23" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353949</v>
       </c>
       <c r="O23" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P23" t="n">
-        <v>283.6949805406768</v>
+        <v>283.6949805406769</v>
       </c>
       <c r="Q23" t="n">
         <v>213.0431156186891</v>
@@ -32739,7 +32739,7 @@
         <v>44.95579398002921</v>
       </c>
       <c r="T23" t="n">
-        <v>8.63604994613616</v>
+        <v>8.636049946136161</v>
       </c>
       <c r="U23" t="n">
         <v>0.1578261554976339</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.055555472765131</v>
+        <v>1.055555472765132</v>
       </c>
       <c r="H24" t="n">
-        <v>10.19444364486324</v>
+        <v>10.19444364486325</v>
       </c>
       <c r="I24" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J24" t="n">
-        <v>99.72684402997236</v>
+        <v>99.72684402997237</v>
       </c>
       <c r="K24" t="n">
-        <v>170.4490607052361</v>
+        <v>170.4490607052362</v>
       </c>
       <c r="L24" t="n">
         <v>229.1897968387624</v>
@@ -32803,7 +32803,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O24" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205706</v>
       </c>
       <c r="P24" t="n">
         <v>201.564799005475</v>
@@ -32812,7 +32812,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R24" t="n">
-        <v>65.53703189676844</v>
+        <v>65.53703189676845</v>
       </c>
       <c r="S24" t="n">
         <v>19.60647994368565</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8849422499598382</v>
+        <v>0.8849422499598383</v>
       </c>
       <c r="H25" t="n">
-        <v>7.867941095097477</v>
+        <v>7.867941095097478</v>
       </c>
       <c r="I25" t="n">
         <v>26.61262693515587</v>
@@ -32882,25 +32882,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O25" t="n">
-        <v>125.0825645670506</v>
+        <v>125.0825645670507</v>
       </c>
       <c r="P25" t="n">
-        <v>107.0297426678698</v>
+        <v>107.0297426678699</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.10184603981882</v>
+        <v>74.10184603981884</v>
       </c>
       <c r="R25" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001236</v>
       </c>
       <c r="S25" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T25" t="n">
-        <v>3.781116886192035</v>
+        <v>3.781116886192036</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.04826957727053669</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34128,10 +34128,10 @@
         <v>20.2042139373768</v>
       </c>
       <c r="I41" t="n">
-        <v>76.05741074778173</v>
+        <v>76.05741074778172</v>
       </c>
       <c r="J41" t="n">
-        <v>167.4412208145916</v>
+        <v>167.4412208145915</v>
       </c>
       <c r="K41" t="n">
         <v>250.9509853422771</v>
@@ -34146,7 +34146,7 @@
         <v>352.0164436353949</v>
       </c>
       <c r="O41" t="n">
-        <v>332.3991457137749</v>
+        <v>332.3991457137748</v>
       </c>
       <c r="P41" t="n">
         <v>283.6949805406769</v>
@@ -34210,19 +34210,19 @@
         <v>36.34258974213282</v>
       </c>
       <c r="J42" t="n">
-        <v>99.72684402997238</v>
+        <v>99.72684402997237</v>
       </c>
       <c r="K42" t="n">
         <v>170.4490607052362</v>
       </c>
       <c r="L42" t="n">
-        <v>229.1897968387625</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M42" t="n">
         <v>267.4536827264984</v>
       </c>
       <c r="N42" t="n">
-        <v>274.532385874998</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O42" t="n">
         <v>251.1434988205706</v>
@@ -34231,19 +34231,19 @@
         <v>201.564799005475</v>
       </c>
       <c r="Q42" t="n">
-        <v>134.7407301726158</v>
+        <v>134.7407301726157</v>
       </c>
       <c r="R42" t="n">
         <v>65.53703189676845</v>
       </c>
       <c r="S42" t="n">
-        <v>19.60647994368566</v>
+        <v>19.60647994368565</v>
       </c>
       <c r="T42" t="n">
-        <v>4.254629295926121</v>
+        <v>4.25462929592612</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06944443899770605</v>
+        <v>0.06944443899770604</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8849422499598384</v>
+        <v>0.8849422499598383</v>
       </c>
       <c r="H43" t="n">
         <v>7.867941095097478</v>
       </c>
       <c r="I43" t="n">
-        <v>26.61262693515588</v>
+        <v>26.61262693515587</v>
       </c>
       <c r="J43" t="n">
-        <v>62.56541707216057</v>
+        <v>62.56541707216056</v>
       </c>
       <c r="K43" t="n">
         <v>102.814199586243</v>
@@ -34322,7 +34322,7 @@
         <v>3.781116886192036</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0482695772705367</v>
+        <v>0.04826957727053669</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5095082038182</v>
+        <v>41.50950820381823</v>
       </c>
       <c r="J11" t="n">
-        <v>138.0212613290049</v>
+        <v>138.021261329005</v>
       </c>
       <c r="K11" t="n">
-        <v>215.1863845474676</v>
+        <v>215.1863845474678</v>
       </c>
       <c r="L11" t="n">
-        <v>273.014845488538</v>
+        <v>273.0148454885382</v>
       </c>
       <c r="M11" t="n">
-        <v>308.9798861821172</v>
+        <v>308.9798861821174</v>
       </c>
       <c r="N11" t="n">
-        <v>314.7368208009487</v>
+        <v>314.7368208009489</v>
       </c>
       <c r="O11" t="n">
-        <v>295.0081863577506</v>
+        <v>295.0081863577508</v>
       </c>
       <c r="P11" t="n">
-        <v>246.1196187304454</v>
+        <v>246.1196187304456</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140911</v>
       </c>
       <c r="R11" t="n">
-        <v>88.89294060868167</v>
+        <v>88.89294060868173</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43.86445131982154</v>
+        <v>20.17020299213282</v>
       </c>
       <c r="J12" t="n">
-        <v>79.11572969663901</v>
+        <v>356.9979709365263</v>
       </c>
       <c r="K12" t="n">
-        <v>148.0498268719028</v>
+        <v>148.0498268719029</v>
       </c>
       <c r="L12" t="n">
-        <v>206.6747101245328</v>
+        <v>206.6747101245329</v>
       </c>
       <c r="M12" t="n">
-        <v>244.3569022141703</v>
+        <v>244.3569022141704</v>
       </c>
       <c r="N12" t="n">
-        <v>253.1893576614562</v>
+        <v>253.1893576614563</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1596020105473</v>
+        <v>227.9716090983484</v>
       </c>
       <c r="P12" t="n">
-        <v>179.7939578006463</v>
+        <v>179.7939578006464</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.9936918836372</v>
+        <v>111.9936918836373</v>
       </c>
       <c r="R12" t="n">
-        <v>41.86411250262428</v>
+        <v>41.86411250262431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.92866108825868</v>
+        <v>41.92866108825871</v>
       </c>
       <c r="K13" t="n">
-        <v>81.84954513353098</v>
+        <v>81.84954513353102</v>
       </c>
       <c r="L13" t="n">
-        <v>395.8408255239471</v>
+        <v>109.6480178846915</v>
       </c>
       <c r="M13" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556724</v>
       </c>
       <c r="N13" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O13" t="n">
-        <v>484.1008763647911</v>
+        <v>215.3377039840679</v>
       </c>
       <c r="P13" t="n">
-        <v>400.5643001647395</v>
+        <v>400.5643001647396</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.48228327503386</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.50950820381821</v>
+        <v>41.50950820381824</v>
       </c>
       <c r="J14" t="n">
-        <v>138.0212613290049</v>
+        <v>138.021261329005</v>
       </c>
       <c r="K14" t="n">
-        <v>215.1863845474677</v>
+        <v>215.1863845474678</v>
       </c>
       <c r="L14" t="n">
-        <v>273.0148454885381</v>
+        <v>273.0148454885382</v>
       </c>
       <c r="M14" t="n">
-        <v>308.9798861821173</v>
+        <v>308.9798861821174</v>
       </c>
       <c r="N14" t="n">
-        <v>314.7368208009488</v>
+        <v>314.7368208009489</v>
       </c>
       <c r="O14" t="n">
-        <v>295.0081863577507</v>
+        <v>295.0081863577508</v>
       </c>
       <c r="P14" t="n">
-        <v>246.1196187304455</v>
+        <v>246.1196187304456</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140911</v>
       </c>
       <c r="R14" t="n">
-        <v>88.8929406086817</v>
+        <v>88.89294060868176</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.86445131982154</v>
+        <v>20.17020299213283</v>
       </c>
       <c r="J15" t="n">
-        <v>79.11572969663902</v>
+        <v>356.9979709365261</v>
       </c>
       <c r="K15" t="n">
-        <v>148.0498268719028</v>
+        <v>148.0498268719029</v>
       </c>
       <c r="L15" t="n">
         <v>206.6747101245329</v>
       </c>
       <c r="M15" t="n">
-        <v>244.3569022141704</v>
+        <v>244.3569022141705</v>
       </c>
       <c r="N15" t="n">
         <v>253.1893576614563</v>
       </c>
       <c r="O15" t="n">
-        <v>227.9716090983483</v>
+        <v>227.9716090983484</v>
       </c>
       <c r="P15" t="n">
-        <v>179.7939578006463</v>
+        <v>179.7939578006464</v>
       </c>
       <c r="Q15" t="n">
-        <v>366.181684795836</v>
+        <v>111.9936918836373</v>
       </c>
       <c r="R15" t="n">
-        <v>41.86411250262429</v>
+        <v>41.86411250262432</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>120.6374657834313</v>
       </c>
       <c r="K16" t="n">
-        <v>331.6299583800179</v>
+        <v>331.629958380018</v>
       </c>
       <c r="L16" t="n">
-        <v>109.6480178846915</v>
+        <v>489.8388194919289</v>
       </c>
       <c r="M16" t="n">
-        <v>116.1432802544913</v>
+        <v>116.1432802544914</v>
       </c>
       <c r="N16" t="n">
-        <v>333.2791885517286</v>
+        <v>114.6713980568903</v>
       </c>
       <c r="O16" t="n">
-        <v>484.1008763647911</v>
+        <v>322.5178652523925</v>
       </c>
       <c r="P16" t="n">
-        <v>400.5643001647395</v>
+        <v>400.5643001647396</v>
       </c>
       <c r="Q16" t="n">
         <v>202.3848058789723</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.50950820381821</v>
+        <v>41.50950820381823</v>
       </c>
       <c r="J17" t="n">
-        <v>138.0212613290049</v>
+        <v>138.021261329005</v>
       </c>
       <c r="K17" t="n">
-        <v>215.1863845474677</v>
+        <v>215.1863845474678</v>
       </c>
       <c r="L17" t="n">
-        <v>273.0148454885381</v>
+        <v>273.0148454885382</v>
       </c>
       <c r="M17" t="n">
-        <v>308.9798861821173</v>
+        <v>308.9798861821174</v>
       </c>
       <c r="N17" t="n">
-        <v>314.7368208009488</v>
+        <v>314.7368208009489</v>
       </c>
       <c r="O17" t="n">
-        <v>295.0081863577507</v>
+        <v>295.0081863577508</v>
       </c>
       <c r="P17" t="n">
-        <v>246.1196187304455</v>
+        <v>246.1196187304456</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140911</v>
       </c>
       <c r="R17" t="n">
-        <v>88.8929406086817</v>
+        <v>88.89294060868173</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.17020299213281</v>
+        <v>20.17020299213282</v>
       </c>
       <c r="J18" t="n">
-        <v>79.11572969663902</v>
+        <v>356.9979709365263</v>
       </c>
       <c r="K18" t="n">
-        <v>148.0498268719028</v>
+        <v>148.0498268719029</v>
       </c>
       <c r="L18" t="n">
         <v>206.6747101245329</v>
@@ -35977,16 +35977,16 @@
         <v>253.1893576614563</v>
       </c>
       <c r="O18" t="n">
-        <v>399.3331429797451</v>
+        <v>227.9716090983484</v>
       </c>
       <c r="P18" t="n">
-        <v>179.7939578006463</v>
+        <v>179.7939578006464</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.9936918836372</v>
+        <v>111.9936918836373</v>
       </c>
       <c r="R18" t="n">
-        <v>148.384819861115</v>
+        <v>41.86411250262431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>120.6374657834313</v>
       </c>
       <c r="K19" t="n">
-        <v>331.6299583800179</v>
+        <v>331.629958380018</v>
       </c>
       <c r="L19" t="n">
-        <v>489.8388194919288</v>
+        <v>489.8388194919289</v>
       </c>
       <c r="M19" t="n">
-        <v>116.1432802544913</v>
+        <v>116.1432802544914</v>
       </c>
       <c r="N19" t="n">
-        <v>421.9062677032865</v>
+        <v>114.6713980568903</v>
       </c>
       <c r="O19" t="n">
-        <v>484.1008763647911</v>
+        <v>322.5178652523925</v>
       </c>
       <c r="P19" t="n">
-        <v>84.64894200988336</v>
+        <v>400.5643001647396</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.48228327503388</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.5095082038182</v>
+        <v>41.50950820381821</v>
       </c>
       <c r="J20" t="n">
-        <v>138.0212613290049</v>
+        <v>138.021261329005</v>
       </c>
       <c r="K20" t="n">
-        <v>215.1863845474677</v>
+        <v>215.1863845474678</v>
       </c>
       <c r="L20" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M20" t="n">
-        <v>308.9798861821172</v>
+        <v>308.9798861821174</v>
       </c>
       <c r="N20" t="n">
-        <v>314.7368208009487</v>
+        <v>314.7368208009489</v>
       </c>
       <c r="O20" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P20" t="n">
-        <v>246.1196187304455</v>
+        <v>246.1196187304456</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140911</v>
       </c>
       <c r="R20" t="n">
-        <v>88.8929406086817</v>
+        <v>88.89294060868173</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.17020299213281</v>
+        <v>43.86445131982155</v>
       </c>
       <c r="J21" t="n">
-        <v>79.11572969663902</v>
+        <v>226.783015250347</v>
       </c>
       <c r="K21" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L21" t="n">
-        <v>206.6747101245328</v>
+        <v>206.6747101245329</v>
       </c>
       <c r="M21" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N21" t="n">
-        <v>253.1893576614562</v>
+        <v>253.1893576614563</v>
       </c>
       <c r="O21" t="n">
         <v>227.9716090983483</v>
@@ -36220,10 +36220,10 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q21" t="n">
-        <v>389.8759331235249</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R21" t="n">
-        <v>41.86411250262429</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.92866108825868</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K22" t="n">
-        <v>248.755751962792</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L22" t="n">
-        <v>489.8388194919288</v>
+        <v>489.8388194919289</v>
       </c>
       <c r="M22" t="n">
-        <v>116.1432802544913</v>
+        <v>423.3781499008882</v>
       </c>
       <c r="N22" t="n">
         <v>114.6713980568902</v>
@@ -36296,10 +36296,10 @@
         <v>484.1008763647911</v>
       </c>
       <c r="P22" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988337</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503389</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>41.50950820381821</v>
       </c>
       <c r="J23" t="n">
-        <v>138.0212613290049</v>
+        <v>138.021261329005</v>
       </c>
       <c r="K23" t="n">
-        <v>215.1863845474677</v>
+        <v>215.1863845474678</v>
       </c>
       <c r="L23" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M23" t="n">
-        <v>308.9798861821173</v>
+        <v>308.9798861821174</v>
       </c>
       <c r="N23" t="n">
-        <v>314.7368208009488</v>
+        <v>314.7368208009489</v>
       </c>
       <c r="O23" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P23" t="n">
-        <v>246.1196187304455</v>
+        <v>246.1196187304456</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140911</v>
       </c>
       <c r="R23" t="n">
-        <v>88.8929406086817</v>
+        <v>88.89294060868173</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>43.86445131982154</v>
+        <v>43.86445131982155</v>
       </c>
       <c r="J24" t="n">
-        <v>79.11572969663902</v>
+        <v>226.783015250347</v>
       </c>
       <c r="K24" t="n">
         <v>148.0498268719028</v>
@@ -36451,7 +36451,7 @@
         <v>253.1893576614563</v>
       </c>
       <c r="O24" t="n">
-        <v>375.6388946520564</v>
+        <v>227.9716090983483</v>
       </c>
       <c r="P24" t="n">
         <v>179.7939578006463</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.92866108825869</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K25" t="n">
         <v>331.6299583800179</v>
       </c>
       <c r="L25" t="n">
-        <v>288.5372897085023</v>
+        <v>109.6480178846915</v>
       </c>
       <c r="M25" t="n">
         <v>529.9500036556723</v>
@@ -36533,7 +36533,7 @@
         <v>102.5833770686262</v>
       </c>
       <c r="P25" t="n">
-        <v>84.64894200988336</v>
+        <v>184.8294091385216</v>
       </c>
       <c r="Q25" t="n">
         <v>202.3848058789723</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982155</v>
       </c>
       <c r="J27" t="n">
-        <v>79.11572969663904</v>
+        <v>226.783015250347</v>
       </c>
       <c r="K27" t="n">
         <v>148.0498268719028</v>
@@ -36685,10 +36685,10 @@
         <v>244.3569022141704</v>
       </c>
       <c r="N27" t="n">
-        <v>529.9500036556725</v>
+        <v>253.1893576614563</v>
       </c>
       <c r="O27" t="n">
-        <v>229.0932043440195</v>
+        <v>227.9716090983483</v>
       </c>
       <c r="P27" t="n">
         <v>179.7939578006463</v>
@@ -36697,7 +36697,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R27" t="n">
-        <v>41.86411250262431</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825869</v>
       </c>
       <c r="K28" t="n">
-        <v>331.6299583800179</v>
+        <v>81.84954513353101</v>
       </c>
       <c r="L28" t="n">
-        <v>295.9665842745148</v>
+        <v>109.6480178846915</v>
       </c>
       <c r="M28" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556724</v>
       </c>
       <c r="N28" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O28" t="n">
-        <v>102.5833770686262</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P28" t="n">
-        <v>400.5643001647396</v>
+        <v>284.703650387955</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503389</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982155</v>
       </c>
       <c r="J30" t="n">
         <v>79.11572969663904</v>
@@ -36916,7 +36916,7 @@
         <v>148.0498268719028</v>
       </c>
       <c r="L30" t="n">
-        <v>484.5569513644203</v>
+        <v>206.6747101245329</v>
       </c>
       <c r="M30" t="n">
         <v>244.3569022141704</v>
@@ -36931,10 +36931,10 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.9936918836372</v>
+        <v>259.660977437345</v>
       </c>
       <c r="R30" t="n">
-        <v>41.86411250262431</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,22 +36995,22 @@
         <v>81.84954513353101</v>
       </c>
       <c r="L31" t="n">
-        <v>489.8388194919289</v>
+        <v>309.7027262627636</v>
       </c>
       <c r="M31" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556725</v>
       </c>
       <c r="N31" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O31" t="n">
-        <v>237.2003597928709</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P31" t="n">
-        <v>400.5643001647396</v>
+        <v>84.64894200988337</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503389</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>41.50950820381821</v>
       </c>
       <c r="J32" t="n">
-        <v>138.0212613290047</v>
+        <v>138.021261329005</v>
       </c>
       <c r="K32" t="n">
         <v>215.1863845474678</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982155</v>
       </c>
       <c r="J33" t="n">
-        <v>79.11572969663904</v>
+        <v>226.783015250347</v>
       </c>
       <c r="K33" t="n">
         <v>148.0498268719028</v>
@@ -37168,7 +37168,7 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q33" t="n">
-        <v>283.3552257650338</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R33" t="n">
         <v>148.384819861115</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825869</v>
       </c>
       <c r="K34" t="n">
         <v>81.84954513353101</v>
       </c>
       <c r="L34" t="n">
-        <v>164.229498224836</v>
+        <v>395.8408255239478</v>
       </c>
       <c r="M34" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556725</v>
       </c>
       <c r="N34" t="n">
         <v>114.6713980568902</v>
@@ -37247,7 +37247,7 @@
         <v>400.5643001647396</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503389</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>20.17020299213282</v>
       </c>
       <c r="J36" t="n">
-        <v>79.11572969663904</v>
+        <v>356.9979709365265</v>
       </c>
       <c r="K36" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L36" t="n">
-        <v>484.5569513644203</v>
+        <v>206.6747101245329</v>
       </c>
       <c r="M36" t="n">
         <v>244.3569022141704</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825869</v>
       </c>
       <c r="K37" t="n">
-        <v>331.6299583800179</v>
+        <v>81.84954513353101</v>
       </c>
       <c r="L37" t="n">
-        <v>489.8388194919289</v>
+        <v>309.7027262627636</v>
       </c>
       <c r="M37" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556725</v>
       </c>
       <c r="N37" t="n">
-        <v>236.7145209943318</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O37" t="n">
-        <v>102.5833770686262</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P37" t="n">
         <v>84.64894200988337</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503389</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982155</v>
       </c>
       <c r="J39" t="n">
         <v>79.11572969663904</v>
@@ -37636,13 +37636,13 @@
         <v>253.1893576614563</v>
       </c>
       <c r="O39" t="n">
-        <v>399.3331429797449</v>
+        <v>227.9716090983483</v>
       </c>
       <c r="P39" t="n">
         <v>179.7939578006463</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.9936918836372</v>
+        <v>259.660977437345</v>
       </c>
       <c r="R39" t="n">
         <v>148.384819861115</v>
@@ -37709,19 +37709,19 @@
         <v>489.8388194919289</v>
       </c>
       <c r="M40" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556725</v>
       </c>
       <c r="N40" t="n">
-        <v>389.6170435982704</v>
+        <v>114.6713980568902</v>
       </c>
       <c r="O40" t="n">
         <v>102.5833770686262</v>
       </c>
       <c r="P40" t="n">
-        <v>84.64894200988337</v>
+        <v>206.6920649473253</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.48228327503389</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.50950820381823</v>
+        <v>41.50950820381821</v>
       </c>
       <c r="J41" t="n">
         <v>138.021261329005</v>
@@ -37785,7 +37785,7 @@
         <v>215.1863845474678</v>
       </c>
       <c r="L41" t="n">
-        <v>273.0148454885382</v>
+        <v>273.0148454885381</v>
       </c>
       <c r="M41" t="n">
         <v>308.9798861821174</v>
@@ -37794,7 +37794,7 @@
         <v>314.7368208009489</v>
       </c>
       <c r="O41" t="n">
-        <v>295.0081863577508</v>
+        <v>295.0081863577507</v>
       </c>
       <c r="P41" t="n">
         <v>246.1196187304456</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982155</v>
       </c>
       <c r="J42" t="n">
-        <v>79.11572969663905</v>
+        <v>226.783015250347</v>
       </c>
       <c r="K42" t="n">
-        <v>148.0498268719029</v>
+        <v>148.0498268719028</v>
       </c>
       <c r="L42" t="n">
         <v>206.6747101245329</v>
       </c>
       <c r="M42" t="n">
-        <v>522.2391434540577</v>
+        <v>244.3569022141704</v>
       </c>
       <c r="N42" t="n">
         <v>253.1893576614563</v>
       </c>
       <c r="O42" t="n">
-        <v>227.9716090983484</v>
+        <v>227.9716090983483</v>
       </c>
       <c r="P42" t="n">
-        <v>179.7939578006464</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.9936918836373</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R42" t="n">
-        <v>41.86411250262431</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825869</v>
       </c>
       <c r="K43" t="n">
-        <v>331.629958380018</v>
+        <v>81.84954513353101</v>
       </c>
       <c r="L43" t="n">
-        <v>109.6480178846915</v>
+        <v>489.8388194919289</v>
       </c>
       <c r="M43" t="n">
-        <v>529.9500036556724</v>
+        <v>116.1432802544914</v>
       </c>
       <c r="N43" t="n">
-        <v>235.3878233054045</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O43" t="n">
         <v>484.1008763647911</v>
       </c>
       <c r="P43" t="n">
-        <v>84.64894200988338</v>
+        <v>318.3195721818991</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503389</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.29179823780398</v>
+        <v>43.86445131982155</v>
       </c>
       <c r="J45" t="n">
-        <v>79.11572969663905</v>
+        <v>226.7830152503468</v>
       </c>
       <c r="K45" t="n">
         <v>148.0498268719029</v>
@@ -38107,7 +38107,7 @@
         <v>244.3569022141704</v>
       </c>
       <c r="N45" t="n">
-        <v>529.9500036556725</v>
+        <v>253.1893576614563</v>
       </c>
       <c r="O45" t="n">
         <v>227.9716090983484</v>
@@ -38119,7 +38119,7 @@
         <v>111.9936918836373</v>
       </c>
       <c r="R45" t="n">
-        <v>41.86411250262431</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>331.629958380018</v>
       </c>
       <c r="L46" t="n">
-        <v>209.8284850133304</v>
+        <v>489.8388194919289</v>
       </c>
       <c r="M46" t="n">
-        <v>529.9500036556725</v>
+        <v>336.0777684382583</v>
       </c>
       <c r="N46" t="n">
-        <v>516.7248554729308</v>
+        <v>114.6713980568903</v>
       </c>
       <c r="O46" t="n">
         <v>102.5833770686262</v>
       </c>
       <c r="P46" t="n">
-        <v>84.64894200988338</v>
+        <v>400.5643001647396</v>
       </c>
       <c r="Q46" t="n">
         <v>202.3848058789723</v>
